--- a/FEMM Simulations/Data/ProjectileLength 2019_10_08 15_01/7mmCoil_192T_156A_swProjectileLength.xlsx
+++ b/FEMM Simulations/Data/ProjectileLength 2019_10_08 15_01/7mmCoil_192T_156A_swProjectileLength.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekultho\Documents\Personal\CG 490\FEMM Simulations\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekultho\Documents\Personal\CG 490\FEMM Simulations\Data\ProjectileLength 2019_10_08 15_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F7371F-DA85-4DD6-9868-7D1C8A51DCFF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7501FF-2FE8-4220-876F-549404CC49C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1008" yWindow="948" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7761,8 +7761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
-      <selection activeCell="S64" sqref="S64"/>
+    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9671,11 +9671,11 @@
         <v>0.11376623178726381</v>
       </c>
       <c r="H40">
-        <f t="array" ref="H40">SUM(ABS(H$2:H2))*0.1</f>
+        <f>SUM(ABS(H$2:H2))*0.1</f>
         <v>0.1293916697659114</v>
       </c>
       <c r="I40">
-        <f t="array" ref="I40">SUM(ABS(I$2:I2))*0.1</f>
+        <f>SUM(ABS(I$2:I2))*0.1</f>
         <v>0.13525572134793531</v>
       </c>
       <c r="J40">
@@ -9683,7 +9683,7 @@
         <v>0.14547368358819121</v>
       </c>
       <c r="K40">
-        <f t="array" ref="K40">SUM(ABS(K$2:K2))*0.1</f>
+        <f>SUM(ABS(K$2:K2))*0.1</f>
         <v>0.1584496525416175</v>
       </c>
       <c r="L40">
@@ -9849,9 +9849,9 @@
         <f t="array" ref="I43">SUM(ABS(I$2:I5))*0.1</f>
         <v>3.6142144852291511</v>
       </c>
-      <c r="J43">
-        <f t="array" ref="J43">SUM(ABS(J$2:J5))*0.1</f>
-        <v>3.6741262858442525</v>
+      <c r="J43" t="e">
+        <f>SUM(ABS(J$2:J5))*0.1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K43">
         <f t="array" ref="K43">SUM(ABS(K$2:K5))*0.1</f>

--- a/FEMM Simulations/Data/ProjectileLength 2019_10_08 15_01/7mmCoil_192T_156A_swProjectileLength.xlsx
+++ b/FEMM Simulations/Data/ProjectileLength 2019_10_08 15_01/7mmCoil_192T_156A_swProjectileLength.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekultho\Documents\Personal\CG 490\FEMM Simulations\Data\ProjectileLength 2019_10_08 15_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7501FF-2FE8-4220-876F-549404CC49C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690C239E-5646-4B20-BC46-5EFEA7EA589E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1008" yWindow="948" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>Position [cm]</t>
   </si>
@@ -126,7 +126,67 @@
     <t>VELOCITY</t>
   </si>
   <si>
-    <t>Projectile Mass [Kg]</t>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MASS</t>
+  </si>
+  <si>
+    <t>Steel density [kg/m^3]</t>
+  </si>
+  <si>
+    <t>rad [mm]</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>mass [kg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 cm </t>
+  </si>
+  <si>
+    <t>7 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 cm </t>
+  </si>
+  <si>
+    <t>3 cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cm </t>
+  </si>
+  <si>
+    <t>MAX Velocity</t>
+  </si>
+  <si>
+    <t>MAX Energy</t>
   </si>
 </sst>
 </file>
@@ -158,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,16 +226,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2801,7 +2875,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11401030426752211"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.85003907844852722"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -3290,6 +3374,15 @@
               <a:t> vs. Position</a:t>
             </a:r>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Swept: Projectile Length</a:t>
+            </a:r>
+          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -3323,7 +3416,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.5227675028993473E-2"/>
+          <c:y val="0.15305084745762712"/>
+          <c:w val="0.78797946041628519"/>
+          <c:h val="0.78480225988700569"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -3336,7 +3439,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 cm Work [J]</c:v>
+                  <c:v>1 cm </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3429,40 +3532,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.86752503764304778</c:v>
+                  <c:v>0.72371126883286008</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7392418616194281</c:v>
+                  <c:v>2.285144655534852</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.7775021713932055</c:v>
+                  <c:v>5.6539632669306723</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.649359616478657</c:v>
+                  <c:v>8.8839644112615677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.748196393190186</c:v>
+                  <c:v>9.8006417674271891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.326007056014848</c:v>
+                  <c:v>10.282665997038015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.344078309319963</c:v>
+                  <c:v>10.297741492374007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.872291798221749</c:v>
+                  <c:v>9.9041652844840815</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.696675078395995</c:v>
+                  <c:v>8.9234361630771026</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.8740825059649229</c:v>
+                  <c:v>5.734533018170473</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.1272925497924944</c:v>
+                  <c:v>2.6088663277902033</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3603643001230998</c:v>
+                  <c:v>1.134850212959619</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3495,7 +3598,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2 cm Work [J]</c:v>
+                  <c:v>2 cm </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3588,52 +3691,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.2815354828394301</c:v>
+                  <c:v>1.3458465537467224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7282537126716866</c:v>
+                  <c:v>2.789132149073478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.092413746175986</c:v>
+                  <c:v>5.9533767330994145</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.890190850564</c:v>
+                  <c:v>9.3734060922840108</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.888067916035983</c:v>
+                  <c:v>11.141812740994354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.007850790452174</c:v>
+                  <c:v>11.802357332044087</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.314747323612551</c:v>
+                  <c:v>11.983391396435088</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.088970679744921</c:v>
+                  <c:v>11.850208844442697</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19.094559903013629</c:v>
+                  <c:v>11.263619537838167</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16.149803799568467</c:v>
+                  <c:v>9.5265482175560905</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.449938496087933</c:v>
+                  <c:v>6.1642756895992354</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5343890701269691</c:v>
+                  <c:v>3.2646603627895954</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7065902556791355</c:v>
+                  <c:v>2.1864668593927048</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2813925202659413</c:v>
+                  <c:v>1.9356485349919044</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2376503156302374</c:v>
+                  <c:v>1.9098456071807703</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.257244951961765</c:v>
+                  <c:v>1.9214042149591981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3654,7 +3757,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3 cm Work [J]</c:v>
+                  <c:v>3 cm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3747,52 +3850,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>2.8141137722720129</c:v>
+                  <c:v>1.3553902008588659</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9357713609816036</c:v>
+                  <c:v>2.8589058539440959</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.710993598106977</c:v>
+                  <c:v>5.6404848025671166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.906017372717042</c:v>
+                  <c:v>8.6242570298765386</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.48067105642054</c:v>
+                  <c:v>10.827593951186804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.9596469470345</c:v>
+                  <c:v>12.021568289896933</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25.779919113189159</c:v>
+                  <c:v>12.416644305301128</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.794646148433657</c:v>
+                  <c:v>12.423737436877676</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.008181520371558</c:v>
+                  <c:v>12.044944489449378</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.447695983158926</c:v>
+                  <c:v>10.811711831703303</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17.946228369679829</c:v>
+                  <c:v>8.6436242607920555</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.764787420620435</c:v>
+                  <c:v>5.6663940677218845</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.2177679704558102</c:v>
+                  <c:v>2.9947267453816786</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6835008461629273</c:v>
+                  <c:v>1.7741219281670138</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.405171841113825</c:v>
+                  <c:v>1.1584273446753341</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.1844536817323763</c:v>
+                  <c:v>1.052120615599597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3813,7 +3916,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4 cm Work [J]</c:v>
+                  <c:v>4 cm </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3906,52 +4009,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.0189839270415733</c:v>
+                  <c:v>1.2592562713586235</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.4163494132359462</c:v>
+                  <c:v>2.6763402631836279</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.363833674295829</c:v>
+                  <c:v>5.1571109580728667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.763744144944855</c:v>
+                  <c:v>7.8265943309757411</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.840623101929086</c:v>
+                  <c:v>9.9442245734712262</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27.703852176924318</c:v>
+                  <c:v>11.555626143651144</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.793411227417515</c:v>
+                  <c:v>12.427207577105886</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.326938846979882</c:v>
+                  <c:v>12.649748676069379</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.835069391209583</c:v>
+                  <c:v>12.444583722615826</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.812965706117023</c:v>
+                  <c:v>11.601138772815959</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.023947491208435</c:v>
+                  <c:v>10.020691488324672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18.980596691215677</c:v>
+                  <c:v>7.9170462629670499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.6466636569646</c:v>
+                  <c:v>5.275082910892408</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9931263175572997</c:v>
+                  <c:v>2.9169211842795613</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.0760537398270671</c:v>
+                  <c:v>1.7001734220234301</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8484445910293159</c:v>
+                  <c:v>1.1881221634678218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3972,7 +4075,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5 cm Work [J]</c:v>
+                  <c:v>5 cm </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4065,52 +4168,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.4885659127957629</c:v>
+                  <c:v>1.30150322317675</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9763233035735581</c:v>
+                  <c:v>2.6027048054962827</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.852689918694757</c:v>
+                  <c:v>4.7950412214705009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.321642414507089</c:v>
+                  <c:v>7.2084577182021592</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.631324287088155</c:v>
+                  <c:v>9.1893771687592061</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28.88599077909624</c:v>
+                  <c:v>10.776694791906211</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.116145962151606</c:v>
+                  <c:v>11.981790950957562</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.712652516469667</c:v>
+                  <c:v>12.577410606199381</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.707727906592275</c:v>
+                  <c:v>12.575573348200379</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.085169489701492</c:v>
+                  <c:v>11.970234345824034</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.882919606308771</c:v>
+                  <c:v>10.7755490084004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.594924311055298</c:v>
+                  <c:v>9.1757971799286793</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19.275606822492392</c:v>
+                  <c:v>7.1912829039989328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.782866955168107</c:v>
+                  <c:v>4.7689918893514296</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.883127489973397</c:v>
+                  <c:v>2.5679356038188001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2612190930110536</c:v>
+                  <c:v>1.2166853850950692</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4131,7 +4234,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6 cm Work [J]</c:v>
+                  <c:v>6 cm </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4224,52 +4327,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.5553751448767104</c:v>
+                  <c:v>1.2108577450847688</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1787141425032726</c:v>
+                  <c:v>2.4448620089290403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.086357901895447</c:v>
+                  <c:v>4.4568342790197599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.563304385450547</c:v>
+                  <c:v>6.6626945594499452</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.95849693704681</c:v>
+                  <c:v>8.5001407982069885</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.451242670283378</c:v>
+                  <c:v>10.030239802140564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.108839111835188</c:v>
+                  <c:v>11.275911158658156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.819998036924197</c:v>
+                  <c:v>12.199253323360599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36.896953745749933</c:v>
+                  <c:v>12.566033229279672</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.7911926991275</c:v>
+                  <c:v>12.189443060041079</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.051585407369608</c:v>
+                  <c:v>11.256412206040782</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.331245934924464</c:v>
+                  <c:v>9.9893723913966941</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.708887512041152</c:v>
+                  <c:v>8.41513106134426</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19.207174708747498</c:v>
+                  <c:v>6.5414071116508534</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>12.510131391046409</c:v>
+                  <c:v>4.2605882275756084</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9184067809995176</c:v>
+                  <c:v>2.0156378433544986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4290,7 +4393,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7 cm Work [J]</c:v>
+                  <c:v>7 cm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4389,52 +4492,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.7916819745612078</c:v>
+                  <c:v>1.1955457533923066</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5158577115596179</c:v>
+                  <c:v>2.3698062839765917</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.413864815238128</c:v>
+                  <c:v>4.2294921420176044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.873649982333244</c:v>
+                  <c:v>6.2663108351889685</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.256335335671253</c:v>
+                  <c:v>7.9635118819025301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.837175266262225</c:v>
+                  <c:v>9.4078850552675579</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.671291642491674</c:v>
+                  <c:v>10.616810693642989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.7747330779031</c:v>
+                  <c:v>11.595349045197965</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.864194980417608</c:v>
+                  <c:v>12.25417204807265</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.884976152376382</c:v>
+                  <c:v>12.260724507390842</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36.836125063014229</c:v>
+                  <c:v>11.614706398368503</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.764353222094563</c:v>
+                  <c:v>10.646153707388514</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.918393490973706</c:v>
+                  <c:v>9.4334937704244002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.330259716088129</c:v>
+                  <c:v>7.9868207932702306</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.902466795472673</c:v>
+                  <c:v>6.2753969924158373</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.404247327884905</c:v>
+                  <c:v>4.226459676151376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4455,7 +4558,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8 cm Work [J]</c:v>
+                  <c:v>8 cm </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4554,52 +4657,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>3.8766497756573171</c:v>
+                  <c:v>1.1433913213039855</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.7000027264480853</c:v>
+                  <c:v>2.2710631088527875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.566354459775956</c:v>
+                  <c:v>4.0013034059573567</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.039445781949247</c:v>
+                  <c:v>5.9104973925423678</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.539317040302858</c:v>
+                  <c:v>7.5326467815788023</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.156558150238212</c:v>
+                  <c:v>8.8944704486581738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.084273173027547</c:v>
+                  <c:v>10.052923115136444</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.367561398816058</c:v>
+                  <c:v>11.021306508002931</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>39.832469366208869</c:v>
+                  <c:v>11.748314244277514</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.844672825174051</c:v>
+                  <c:v>12.046856727439648</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39.844168057525991</c:v>
+                  <c:v>11.751764693220981</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37.367393130988162</c:v>
+                  <c:v>11.021256878558642</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34.10542112549907</c:v>
+                  <c:v>10.059160558990961</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.176494668828433</c:v>
+                  <c:v>8.9003505883799008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.593443185774248</c:v>
+                  <c:v>7.5486109177708913</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.129033159708083</c:v>
+                  <c:v>5.9369205765171094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4620,7 +4723,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9 cm Work [J]</c:v>
+                  <c:v>9 cm </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4719,52 +4822,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.0204157273732442</c:v>
+                  <c:v>1.1179774035486572</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8243182681826218</c:v>
+                  <c:v>2.1757478865789559</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.69650873454334</c:v>
+                  <c:v>3.8086576889228012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.2048571878817</c:v>
+                  <c:v>5.6184671709902352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.689081713954604</c:v>
+                  <c:v>7.1434933155234832</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.304626019898947</c:v>
+                  <c:v>8.4269611429898728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.311625333620803</c:v>
+                  <c:v>9.5412077763107668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.693543741440301</c:v>
+                  <c:v>10.481634990055083</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.328277428841687</c:v>
+                  <c:v>11.214288756885233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>41.686414842164261</c:v>
+                  <c:v>11.591952919491792</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.697984233324597</c:v>
+                  <c:v>11.595170078802459</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.357804835076486</c:v>
+                  <c:v>11.222499592578453</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37.719644920171021</c:v>
+                  <c:v>10.488893077279311</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34.362037697965782</c:v>
+                  <c:v>9.5552261982897235</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.311329563261555</c:v>
+                  <c:v>8.428825231310908</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25.643064091412597</c:v>
+                  <c:v>7.1306969616994946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4785,7 +4888,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10 cm Work [J]</c:v>
+                  <c:v>10 cm </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4884,52 +4987,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.1958928667291557</c:v>
+                  <c:v>1.1068982684909161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9422609823475216</c:v>
+                  <c:v>2.0952095795802665</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.842421834019241</c:v>
+                  <c:v>3.6517025687886306</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.36744084694589</c:v>
+                  <c:v>5.3730363770345564</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.870287316123257</c:v>
+                  <c:v>6.8247157744763687</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.547957212470983</c:v>
+                  <c:v>8.0587093184715908</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.589881331363046</c:v>
+                  <c:v>9.124989833889261</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.018797266219536</c:v>
+                  <c:v>10.029555615630075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.771454387420761</c:v>
+                  <c:v>10.755720820029586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.324135607541123</c:v>
+                  <c:v>11.165326167129248</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.707395118793578</c:v>
+                  <c:v>11.266432011072951</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.313779396977992</c:v>
+                  <c:v>11.162594145148574</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.772551706808741</c:v>
+                  <c:v>10.756010298567077</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>38.054446569349636</c:v>
+                  <c:v>10.038960086421147</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34.662565873689921</c:v>
+                  <c:v>9.1441643925834608</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.694894256594999</c:v>
+                  <c:v>8.0974720716886033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4950,7 +5053,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11 cm Work [J]</c:v>
+                  <c:v>11 cm </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5049,52 +5152,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.2697796952738925</c:v>
+                  <c:v>1.0739707225784292</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0576736713334896</c:v>
+                  <c:v>2.0267335161769053</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.785801249874268</c:v>
+                  <c:v>3.4675201032123391</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.299651100793778</c:v>
+                  <c:v>5.1059381318761501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.787749751917389</c:v>
+                  <c:v>6.4863506342946957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.47729402668373</c:v>
+                  <c:v>7.6659040569007937</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.524946746571764</c:v>
+                  <c:v>8.684003543658001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.993191622209373</c:v>
+                  <c:v>9.5563655203872298</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.772951728538906</c:v>
+                  <c:v>10.255554046037361</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.406765513002938</c:v>
+                  <c:v>10.666504562430895</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.961043619863105</c:v>
+                  <c:v>10.805921230600664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.947944691113705</c:v>
+                  <c:v>10.802626478417181</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.37729211735499</c:v>
+                  <c:v>10.6590911672958</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.701069375372732</c:v>
+                  <c:v>10.237473594988337</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.875817999441608</c:v>
+                  <c:v>9.5268427244933171</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.404621254040791</c:v>
+                  <c:v>8.6537382687771593</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5115,7 +5218,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12 cm Work [J]</c:v>
+                  <c:v>12 cm </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5214,52 +5317,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.3062688213576577</c:v>
+                  <c:v>1.0370359969525873</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.0384438008515264</c:v>
+                  <c:v>1.9358186696610433</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.936751653314385</c:v>
+                  <c:v>3.3562496315589665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.407949768135918</c:v>
+                  <c:v>4.9146440715897421</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.879626317504648</c:v>
+                  <c:v>6.2323336494521202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.549127230785061</c:v>
+                  <c:v>7.3568432274092324</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.617519157921322</c:v>
+                  <c:v>8.336593691947451</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.072324682536511</c:v>
+                  <c:v>9.168580230671493</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.855735156955809</c:v>
+                  <c:v>9.838881360492195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.557514552678796</c:v>
+                  <c:v>10.248704008693837</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.222971244746041</c:v>
+                  <c:v>10.408959341724614</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.404422389376926</c:v>
+                  <c:v>10.452656420675471</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.222521224412361</c:v>
+                  <c:v>10.408850967792389</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.55199093108088</c:v>
+                  <c:v>10.247373809705287</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.871050022600848</c:v>
+                  <c:v>9.8425694876438534</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>38.047900566729624</c:v>
+                  <c:v>9.1626984131779246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5280,7 +5383,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13 cm Work [J]</c:v>
+                  <c:v>13 cm </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5382,52 +5485,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.3475962553325234</c:v>
+                  <c:v>1.0059139872852776</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2032298176516392</c:v>
+                  <c:v>1.8980013621021741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.988703808097448</c:v>
+                  <c:v>3.2366006404796219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.415887923815387</c:v>
+                  <c:v>4.7236739612666145</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.898011642728338</c:v>
+                  <c:v>5.9920863448036288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.533434405035432</c:v>
+                  <c:v>7.0645954555256942</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34.593911929219878</c:v>
+                  <c:v>8.0040780791995942</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38.097099003937736</c:v>
+                  <c:v>8.814619047490627</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.894941089813109</c:v>
+                  <c:v>9.4619626192276485</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.615706141186443</c:v>
+                  <c:v>9.8601002411112422</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.345078291135628</c:v>
+                  <c:v>10.028856860742222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43.632087543513826</c:v>
+                  <c:v>10.095262893982637</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.641266690472186</c:v>
+                  <c:v>10.097386695682355</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.353678492964946</c:v>
+                  <c:v>10.030846710490337</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.636909548828811</c:v>
+                  <c:v>9.8650061254374162</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.898376738966697</c:v>
+                  <c:v>9.4627575337818133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5454,6 +5557,7 @@
         <c:axId val="576520720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5471,6 +5575,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Front Position</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [cm]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.37816120368674844"/>
+              <c:y val="0.9463276836158192"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5533,6 +5705,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Velocity [m/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4132637490081179E-2"/>
+              <c:y val="0.4539688153387606"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5583,7 +5818,872 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.87172822227144886"/>
+          <c:y val="0.1720793011560578"/>
+          <c:w val="0.10500991881828725"/>
+          <c:h val="0.61970772721206457"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Max</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Velocity &amp; Energy vs. Projectile Length</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.25737395470914975"/>
+          <c:y val="3.6630036630036632E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.3670878349508634E-2"/>
+          <c:y val="0.14374236874236876"/>
+          <c:w val="0.83443965619162475"/>
+          <c:h val="0.67225755434416856"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAX Velocity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$P$70:$P$82</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1 cm </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cm </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cm </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 cm </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 cm </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 cm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 cm </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9 cm </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10 cm </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11 cm </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12 cm </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13 cm </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$70:$Q$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10.297741492374007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.983391396435088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.423737436877676</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.649748676069379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.577410606199381</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.566033229279672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.260724507390842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.046856727439648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.595170078802459</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.266432011072951</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.805921230600664</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.452656420675471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.097386695682355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB81-4917-8E1B-028BE6A099EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="679521408"/>
+        <c:axId val="679521736"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAX Energy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$P$70:$P$82</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1 cm </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2 cm </c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3 cm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4 cm </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5 cm </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6 cm </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7 cm</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8 cm </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9 cm </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10 cm </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11 cm </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12 cm </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13 cm </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$70:$R$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.13713864237596121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37142006294000079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59882739293061293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82775089784561173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.022888645726606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2252466761444085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3608372333337917</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5014585683759605</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5648497002103279</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6415294380494778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.661086142017002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6955494946599003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7141041425140253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB81-4917-8E1B-028BE6A099EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="679536824"/>
+        <c:axId val="679538464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="679521408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Projectile Length [cm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679521736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="679521736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Maximum</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Velocity [m/s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679521408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="679538464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Maximum</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Kinetic Energy [J]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="679536824"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="679536824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="679538464"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30626869315754141"/>
+          <c:y val="0.92518315018315012"/>
+          <c:w val="0.39721967893548188"/>
+          <c:h val="6.0287656350648477E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5738,6 +6838,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7325,6 +8465,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7401,16 +9057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7430,6 +9086,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4129B3FC-7BC5-4E25-BB76-E2A82F75E9D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7759,20 +9451,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:AC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="N64" workbookViewId="0">
+      <selection activeCell="Z64" sqref="Z64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8525,21 +10219,21 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -8590,56 +10284,56 @@
         <v>-2</v>
       </c>
       <c r="B21">
-        <f>SUM(B$2:B2)*0.1</f>
-        <v>6.773397218438143E-3</v>
+        <f>SUM(B$2:B2)*0.01</f>
+        <v>6.7733972184381432E-4</v>
       </c>
       <c r="C21">
-        <f>SUM(C$2:C2)*0.1</f>
-        <v>4.684863743509815E-2</v>
+        <f>SUM(C$2:C2)*0.01</f>
+        <v>4.6848637435098154E-3</v>
       </c>
       <c r="D21">
-        <f>SUM(D$2:D2)*0.1</f>
-        <v>7.1273126909619164E-2</v>
+        <f>SUM(D$2:D2)*0.01</f>
+        <v>7.1273126909619155E-3</v>
       </c>
       <c r="E21">
-        <f>SUM(E$2:E2)*0.1</f>
-        <v>8.2028375565618233E-2</v>
+        <f>SUM(E$2:E2)*0.01</f>
+        <v>8.2028375565618237E-3</v>
       </c>
       <c r="F21">
-        <f>SUM(F$2:F2)*0.1</f>
-        <v>0.10953082915128481</v>
+        <f>SUM(F$2:F2)*0.01</f>
+        <v>1.0953082915128481E-2</v>
       </c>
       <c r="G21">
-        <f>SUM(G$2:G2)*0.1</f>
-        <v>0.11376623178726381</v>
+        <f>SUM(G$2:G2)*0.01</f>
+        <v>1.137662317872638E-2</v>
       </c>
       <c r="H21">
-        <f>SUM(H$2:H2)*0.1</f>
-        <v>0.1293916697659114</v>
+        <f>SUM(H$2:H2)*0.01</f>
+        <v>1.2939166976591141E-2</v>
       </c>
       <c r="I21">
-        <f>SUM(I$2:I2)*0.1</f>
-        <v>0.13525572134793531</v>
+        <f>SUM(I$2:I2)*0.01</f>
+        <v>1.3525572134793532E-2</v>
       </c>
       <c r="J21">
-        <f>SUM(J$2:J2)*0.1</f>
-        <v>0.14547368358819121</v>
+        <f>SUM(J$2:J2)*0.01</f>
+        <v>1.454736835881912E-2</v>
       </c>
       <c r="K21">
-        <f>SUM(K$2:K2)*0.1</f>
-        <v>0.1584496525416175</v>
+        <f>SUM(K$2:K2)*0.01</f>
+        <v>1.584496525416175E-2</v>
       </c>
       <c r="L21">
-        <f>SUM(L$2:L2)*0.1</f>
-        <v>0.1640791678155589</v>
+        <f>SUM(L$2:L2)*0.01</f>
+        <v>1.6407916781555891E-2</v>
       </c>
       <c r="M21">
-        <f>SUM(M$2:M2)*0.1</f>
-        <v>0.1668955604561736</v>
+        <f>SUM(M$2:M2)*0.01</f>
+        <v>1.6689556045617358E-2</v>
       </c>
       <c r="N21">
-        <f>SUM(N$2:N2)*0.1</f>
-        <v>0.17011433879443241</v>
+        <f>SUM(N$2:N2)*0.01</f>
+        <v>1.701143387944324E-2</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
@@ -8647,56 +10341,56 @@
         <v>-1</v>
       </c>
       <c r="B22">
-        <f>SUM(B$2:B3)*0.1</f>
-        <v>6.753101378803443E-2</v>
+        <f>SUM(B$2:B3)*0.01</f>
+        <v>6.7531013788034435E-3</v>
       </c>
       <c r="C22">
-        <f>SUM(C$2:C3)*0.1</f>
-        <v>0.20120744854254227</v>
+        <f>SUM(C$2:C3)*0.01</f>
+        <v>2.0120744854254226E-2</v>
       </c>
       <c r="D22">
-        <f>SUM(D$2:D3)*0.1</f>
-        <v>0.31710043484864459</v>
+        <f>SUM(D$2:D3)*0.01</f>
+        <v>3.1710043484864461E-2</v>
       </c>
       <c r="E22">
-        <f>SUM(E$2:E3)*0.1</f>
-        <v>0.37052585813459937</v>
+        <f>SUM(E$2:E3)*0.01</f>
+        <v>3.705258581345993E-2</v>
       </c>
       <c r="F22">
-        <f>SUM(F$2:F3)*0.1</f>
-        <v>0.43802178152385124</v>
+        <f>SUM(F$2:F3)*0.01</f>
+        <v>4.3802178152385123E-2</v>
       </c>
       <c r="G22">
-        <f>SUM(G$2:G3)*0.1</f>
-        <v>0.4638054306579884</v>
+        <f>SUM(G$2:G3)*0.01</f>
+        <v>4.6380543065798835E-2</v>
       </c>
       <c r="H22">
-        <f>SUM(H$2:H3)*0.1</f>
-        <v>0.50839305426369152</v>
+        <f>SUM(H$2:H3)*0.01</f>
+        <v>5.0839305426369157E-2</v>
       </c>
       <c r="I22">
-        <f>SUM(I$2:I3)*0.1</f>
-        <v>0.53361037788577148</v>
+        <f>SUM(I$2:I3)*0.01</f>
+        <v>5.3361037788577148E-2</v>
       </c>
       <c r="J22">
-        <f>SUM(J$2:J3)*0.1</f>
-        <v>0.55097960725634676</v>
+        <f>SUM(J$2:J3)*0.01</f>
+        <v>5.5097960725634672E-2</v>
       </c>
       <c r="K22">
-        <f>SUM(K$2:K3)*0.1</f>
-        <v>0.5677155856054783</v>
+        <f>SUM(K$2:K3)*0.01</f>
+        <v>5.677155856054783E-2</v>
       </c>
       <c r="L22">
-        <f>SUM(L$2:L3)*0.1</f>
-        <v>0.58433494494330818</v>
+        <f>SUM(L$2:L3)*0.01</f>
+        <v>5.8433494494330822E-2</v>
       </c>
       <c r="M22">
-        <f>SUM(M$2:M3)*0.1</f>
-        <v>0.5815492086550349</v>
+        <f>SUM(M$2:M3)*0.01</f>
+        <v>5.8154920865503494E-2</v>
       </c>
       <c r="N22">
-        <f>SUM(N$2:N3)*0.1</f>
-        <v>0.60563681497088051</v>
+        <f>SUM(N$2:N3)*0.01</f>
+        <v>6.0563681497088045E-2</v>
       </c>
       <c r="X22" t="s">
         <v>27</v>
@@ -8710,56 +10404,56 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <f>SUM(B$2:B4)*0.1</f>
-        <v>0.4134108211491565</v>
+        <f>SUM(B$2:B4)*0.01</f>
+        <v>4.1341082114915655E-2</v>
       </c>
       <c r="C23">
-        <f>SUM(C$2:C4)*0.1</f>
-        <v>0.91671133701601804</v>
+        <f>SUM(C$2:C4)*0.01</f>
+        <v>9.1671133701601806E-2</v>
       </c>
       <c r="D23">
-        <f>SUM(D$2:D4)*0.1</f>
-        <v>1.2343263394941233</v>
+        <f>SUM(D$2:D4)*0.01</f>
+        <v>0.12343263394941233</v>
       </c>
       <c r="E23">
-        <f>SUM(E$2:E4)*0.1</f>
-        <v>1.3757794481308634</v>
+        <f>SUM(E$2:E4)*0.01</f>
+        <v>0.13757794481308633</v>
       </c>
       <c r="F23">
-        <f>SUM(F$2:F4)*0.1</f>
-        <v>1.4867247433150603</v>
+        <f>SUM(F$2:F4)*0.01</f>
+        <v>0.14867247433150602</v>
       </c>
       <c r="G23">
-        <f>SUM(G$2:G4)*0.1</f>
-        <v>1.5412748682285125</v>
+        <f>SUM(G$2:G4)*0.01</f>
+        <v>0.15412748682285124</v>
       </c>
       <c r="H23">
-        <f>SUM(H$2:H4)*0.1</f>
-        <v>1.6193859235333505</v>
+        <f>SUM(H$2:H4)*0.01</f>
+        <v>0.16193859235333505</v>
       </c>
       <c r="I23">
-        <f>SUM(I$2:I4)*0.1</f>
-        <v>1.6564137599545465</v>
+        <f>SUM(I$2:I4)*0.01</f>
+        <v>0.16564137599545464</v>
       </c>
       <c r="J23">
-        <f>SUM(J$2:J4)*0.1</f>
-        <v>1.6883491636387977</v>
+        <f>SUM(J$2:J4)*0.01</f>
+        <v>0.16883491636387976</v>
       </c>
       <c r="K23">
-        <f>SUM(K$2:K4)*0.1</f>
-        <v>1.7245137800783934</v>
+        <f>SUM(K$2:K4)*0.01</f>
+        <v>0.17245137800783933</v>
       </c>
       <c r="L23">
-        <f>SUM(L$2:L4)*0.1</f>
-        <v>1.7104348449093143</v>
+        <f>SUM(L$2:L4)*0.01</f>
+        <v>0.1710434844909314</v>
       </c>
       <c r="M23">
-        <f>SUM(M$2:M4)*0.1</f>
-        <v>1.7480974198154511</v>
+        <f>SUM(M$2:M4)*0.01</f>
+        <v>0.17480974198154509</v>
       </c>
       <c r="N23">
-        <f>SUM(N$2:N4)*0.1</f>
-        <v>1.7611545080761204</v>
+        <f>SUM(N$2:N4)*0.01</f>
+        <v>0.17611545080761204</v>
       </c>
       <c r="X23">
         <v>1</v>
@@ -8773,56 +10467,56 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <f>SUM(B$2:B5)*0.1</f>
-        <v>1.020679742169778</v>
+        <f>SUM(B$2:B5)*0.01</f>
+        <v>0.10206797421697779</v>
       </c>
       <c r="C24">
-        <f>SUM(C$2:C5)*0.1</f>
-        <v>2.2724834874061304</v>
+        <f>SUM(C$2:C5)*0.01</f>
+        <v>0.227248348740613</v>
       </c>
       <c r="D24">
-        <f>SUM(D$2:D5)*0.1</f>
-        <v>2.8856291233684002</v>
+        <f>SUM(D$2:D5)*0.01</f>
+        <v>0.28856291233684001</v>
       </c>
       <c r="E24">
-        <f>SUM(E$2:E5)*0.1</f>
-        <v>3.1687028490325702</v>
+        <f>SUM(E$2:E5)*0.01</f>
+        <v>0.31687028490325703</v>
       </c>
       <c r="F24">
-        <f>SUM(F$2:F5)*0.1</f>
-        <v>3.3599327903467131</v>
+        <f>SUM(F$2:F5)*0.01</f>
+        <v>0.3359932790346713</v>
       </c>
       <c r="G24">
-        <f>SUM(G$2:G5)*0.1</f>
-        <v>3.4445059063000971</v>
+        <f>SUM(G$2:G5)*0.01</f>
+        <v>0.34445059063000971</v>
       </c>
       <c r="H24">
-        <f>SUM(H$2:H5)*0.1</f>
-        <v>3.5546576725826471</v>
+        <f>SUM(H$2:H5)*0.01</f>
+        <v>0.35546576725826468</v>
       </c>
       <c r="I24">
-        <f>SUM(I$2:I5)*0.1</f>
-        <v>3.6142144852291511</v>
+        <f>SUM(I$2:I5)*0.01</f>
+        <v>0.36142144852291508</v>
       </c>
       <c r="J24">
-        <f>SUM(J$2:J5)*0.1</f>
-        <v>3.6741262858442525</v>
+        <f>SUM(J$2:J5)*0.01</f>
+        <v>0.36741262858442525</v>
       </c>
       <c r="K24">
-        <f>SUM(K$2:K5)*0.1</f>
-        <v>3.7334938198845586</v>
+        <f>SUM(K$2:K5)*0.01</f>
+        <v>0.37334938198845585</v>
       </c>
       <c r="L24">
-        <f>SUM(L$2:L5)*0.1</f>
-        <v>3.708682513325622</v>
+        <f>SUM(L$2:L5)*0.01</f>
+        <v>0.37086825133256218</v>
       </c>
       <c r="M24">
-        <f>SUM(M$2:M5)*0.1</f>
-        <v>3.7483597236488295</v>
+        <f>SUM(M$2:M5)*0.01</f>
+        <v>0.37483597236488292</v>
       </c>
       <c r="N24">
-        <f>SUM(N$2:N5)*0.1</f>
-        <v>3.7512763174601176</v>
+        <f>SUM(N$2:N5)*0.01</f>
+        <v>0.37512763174601177</v>
       </c>
       <c r="X24">
         <v>2</v>
@@ -8836,56 +10530,56 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <f>SUM(B$2:B6)*0.1</f>
-        <v>1.2421810664367019</v>
+        <f>SUM(B$2:B6)*0.01</f>
+        <v>0.1242181066436702</v>
       </c>
       <c r="C25">
-        <f>SUM(C$2:C6)*0.1</f>
-        <v>3.2108319864070909</v>
+        <f>SUM(C$2:C6)*0.01</f>
+        <v>0.32108319864070906</v>
       </c>
       <c r="D25">
-        <f>SUM(D$2:D6)*0.1</f>
-        <v>4.5484251403228573</v>
+        <f>SUM(D$2:D6)*0.01</f>
+        <v>0.45484251403228571</v>
       </c>
       <c r="E25">
-        <f>SUM(E$2:E6)*0.1</f>
-        <v>5.1153777889941132</v>
+        <f>SUM(E$2:E6)*0.01</f>
+        <v>0.51153777889941121</v>
       </c>
       <c r="F25">
-        <f>SUM(F$2:F6)*0.1</f>
-        <v>5.4603192252212898</v>
+        <f>SUM(F$2:F6)*0.01</f>
+        <v>0.54603192252212895</v>
       </c>
       <c r="G25">
-        <f>SUM(G$2:G6)*0.1</f>
-        <v>5.6063391242091747</v>
+        <f>SUM(G$2:G6)*0.01</f>
+        <v>0.56063391242091742</v>
       </c>
       <c r="H25">
-        <f>SUM(H$2:H6)*0.1</f>
-        <v>5.7409422712908871</v>
+        <f>SUM(H$2:H6)*0.01</f>
+        <v>0.57409422712908864</v>
       </c>
       <c r="I25">
-        <f>SUM(I$2:I6)*0.1</f>
-        <v>5.8703104339659351</v>
+        <f>SUM(I$2:I6)*0.01</f>
+        <v>0.58703104339659351</v>
       </c>
       <c r="J25">
-        <f>SUM(J$2:J6)*0.1</f>
-        <v>5.9393602737561313</v>
+        <f>SUM(J$2:J6)*0.01</f>
+        <v>0.59393602737561313</v>
       </c>
       <c r="K25">
-        <f>SUM(K$2:K6)*0.1</f>
-        <v>6.0234458923689091</v>
+        <f>SUM(K$2:K6)*0.01</f>
+        <v>0.60234458923689094</v>
       </c>
       <c r="L25">
-        <f>SUM(L$2:L6)*0.1</f>
-        <v>5.9850723354076383</v>
+        <f>SUM(L$2:L6)*0.01</f>
+        <v>0.59850723354076385</v>
       </c>
       <c r="M25">
-        <f>SUM(M$2:M6)*0.1</f>
-        <v>6.0277955250031114</v>
+        <f>SUM(M$2:M6)*0.01</f>
+        <v>0.60277955250031112</v>
       </c>
       <c r="N25">
-        <f>SUM(N$2:N6)*0.1</f>
-        <v>6.0363630634220335</v>
+        <f>SUM(N$2:N6)*0.01</f>
+        <v>0.60363630634220333</v>
       </c>
       <c r="X25">
         <v>3</v>
@@ -8899,56 +10593,56 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <f>SUM(B$2:B7)*0.1</f>
-        <v>1.3673740495043503</v>
+        <f>SUM(B$2:B7)*0.01</f>
+        <v>0.13673740495043502</v>
       </c>
       <c r="C26">
-        <f>SUM(C$2:C7)*0.1</f>
-        <v>3.6028268392769789</v>
+        <f>SUM(C$2:C7)*0.01</f>
+        <v>0.36028268392769791</v>
       </c>
       <c r="D26">
-        <f>SUM(D$2:D7)*0.1</f>
-        <v>5.6068557814854776</v>
+        <f>SUM(D$2:D7)*0.01</f>
+        <v>0.56068557814854769</v>
       </c>
       <c r="E26">
-        <f>SUM(E$2:E7)*0.1</f>
-        <v>6.907530828967869</v>
+        <f>SUM(E$2:E7)*0.01</f>
+        <v>0.69075308289678694</v>
       </c>
       <c r="F26">
-        <f>SUM(F$2:F7)*0.1</f>
-        <v>7.509604169610296</v>
+        <f>SUM(F$2:F7)*0.01</f>
+        <v>0.75096041696102955</v>
       </c>
       <c r="G26">
-        <f>SUM(G$2:G7)*0.1</f>
-        <v>7.8063812534152817</v>
+        <f>SUM(G$2:G7)*0.01</f>
+        <v>0.78063812534152821</v>
       </c>
       <c r="H26">
-        <f>SUM(H$2:H7)*0.1</f>
-        <v>8.0123132508268515</v>
+        <f>SUM(H$2:H7)*0.01</f>
+        <v>0.80123132508268513</v>
       </c>
       <c r="I26">
-        <f>SUM(I$2:I7)*0.1</f>
-        <v>8.1847619952182882</v>
+        <f>SUM(I$2:I7)*0.01</f>
+        <v>0.81847619952182882</v>
       </c>
       <c r="J26">
-        <f>SUM(J$2:J7)*0.1</f>
-        <v>8.2653332238534265</v>
+        <f>SUM(J$2:J7)*0.01</f>
+        <v>0.82653332238534261</v>
       </c>
       <c r="K26">
-        <f>SUM(K$2:K7)*0.1</f>
-        <v>8.3985992086946197</v>
+        <f>SUM(K$2:K7)*0.01</f>
+        <v>0.83985992086946204</v>
       </c>
       <c r="L26">
-        <f>SUM(L$2:L7)*0.1</f>
-        <v>8.3597890607003862</v>
+        <f>SUM(L$2:L7)*0.01</f>
+        <v>0.83597890607003866</v>
       </c>
       <c r="M26">
-        <f>SUM(M$2:M7)*0.1</f>
-        <v>8.3992425710642387</v>
+        <f>SUM(M$2:M7)*0.01</f>
+        <v>0.83992425710642382</v>
       </c>
       <c r="N26">
-        <f>SUM(N$2:N7)*0.1</f>
-        <v>8.3906155490994134</v>
+        <f>SUM(N$2:N7)*0.01</f>
+        <v>0.83906155490994139</v>
       </c>
       <c r="X26">
         <v>4</v>
@@ -8962,56 +10656,56 @@
         <v>4</v>
       </c>
       <c r="B27">
-        <f>SUM(B$2:B8)*0.1</f>
-        <v>1.3713864237596123</v>
+        <f>SUM(B$2:B8)*0.01</f>
+        <v>0.13713864237596121</v>
       </c>
       <c r="C27">
-        <f>SUM(C$2:C8)*0.1</f>
-        <v>3.7142006294000094</v>
+        <f>SUM(C$2:C8)*0.01</f>
+        <v>0.37142006294000091</v>
       </c>
       <c r="D27">
-        <f>SUM(D$2:D8)*0.1</f>
-        <v>5.9814380653431805</v>
+        <f>SUM(D$2:D8)*0.01</f>
+        <v>0.59814380653431798</v>
       </c>
       <c r="E27">
-        <f>SUM(E$2:E8)*0.1</f>
-        <v>7.9888261730940719</v>
+        <f>SUM(E$2:E8)*0.01</f>
+        <v>0.79888261730940713</v>
       </c>
       <c r="F27">
-        <f>SUM(F$2:F8)*0.1</f>
-        <v>9.2830214831600397</v>
+        <f>SUM(F$2:F8)*0.01</f>
+        <v>0.92830214831600388</v>
       </c>
       <c r="G27">
-        <f>SUM(G$2:G8)*0.1</f>
-        <v>9.8657570460004855</v>
+        <f>SUM(G$2:G8)*0.01</f>
+        <v>0.98657570460004851</v>
       </c>
       <c r="H27">
-        <f>SUM(H$2:H8)*0.1</f>
-        <v>10.203802927863569</v>
+        <f>SUM(H$2:H8)*0.01</f>
+        <v>1.0203802927863568</v>
       </c>
       <c r="I27">
-        <f>SUM(I$2:I8)*0.1</f>
-        <v>10.455639099602088</v>
+        <f>SUM(I$2:I8)*0.01</f>
+        <v>1.0455639099602088</v>
       </c>
       <c r="J27">
-        <f>SUM(J$2:J8)*0.1</f>
-        <v>10.59558869731292</v>
+        <f>SUM(J$2:J8)*0.01</f>
+        <v>1.0595588697312919</v>
       </c>
       <c r="K27">
-        <f>SUM(K$2:K8)*0.1</f>
-        <v>10.768139014660001</v>
+        <f>SUM(K$2:K8)*0.01</f>
+        <v>1.0768139014659999</v>
       </c>
       <c r="L27">
-        <f>SUM(L$2:L8)*0.1</f>
-        <v>10.727747530682544</v>
+        <f>SUM(L$2:L8)*0.01</f>
+        <v>1.0727747530682543</v>
       </c>
       <c r="M27">
-        <f>SUM(M$2:M8)*0.1</f>
-        <v>10.785353693841447</v>
+        <f>SUM(M$2:M8)*0.01</f>
+        <v>1.0785353693841446</v>
       </c>
       <c r="N27">
-        <f>SUM(N$2:N8)*0.1</f>
-        <v>10.770648683099592</v>
+        <f>SUM(N$2:N8)*0.01</f>
+        <v>1.0770648683099591</v>
       </c>
       <c r="X27">
         <v>5</v>
@@ -9025,56 +10719,56 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <f>SUM(B$2:B9)*0.1</f>
-        <v>1.2685618128791107</v>
+        <f>SUM(B$2:B9)*0.01</f>
+        <v>0.12685618128791107</v>
       </c>
       <c r="C28">
-        <f>SUM(C$2:C9)*0.1</f>
-        <v>3.6321006867448595</v>
+        <f>SUM(C$2:C9)*0.01</f>
+        <v>0.36321006867448596</v>
       </c>
       <c r="D28">
-        <f>SUM(D$2:D9)*0.1</f>
-        <v>5.9882739293061285</v>
+        <f>SUM(D$2:D9)*0.01</f>
+        <v>0.59882739293061282</v>
       </c>
       <c r="E28">
-        <f>SUM(E$2:E9)*0.1</f>
-        <v>8.2775089784561171</v>
+        <f>SUM(E$2:E9)*0.01</f>
+        <v>0.82775089784561162</v>
       </c>
       <c r="F28">
-        <f>SUM(F$2:F9)*0.1</f>
-        <v>10.228886457266059</v>
+        <f>SUM(F$2:F9)*0.01</f>
+        <v>1.022888645726606</v>
       </c>
       <c r="G28">
-        <f>SUM(G$2:G9)*0.1</f>
-        <v>11.547650334287281</v>
+        <f>SUM(G$2:G9)*0.01</f>
+        <v>1.154765033428728</v>
       </c>
       <c r="H28">
-        <f>SUM(H$2:H9)*0.1</f>
-        <v>12.171428936559181</v>
+        <f>SUM(H$2:H9)*0.01</f>
+        <v>1.2171428936559179</v>
       </c>
       <c r="I28">
-        <f>SUM(I$2:I9)*0.1</f>
-        <v>12.56701180404859</v>
+        <f>SUM(I$2:I9)*0.01</f>
+        <v>1.2567011804048589</v>
       </c>
       <c r="J28">
-        <f>SUM(J$2:J9)*0.1</f>
-        <v>12.787229158090859</v>
+        <f>SUM(J$2:J9)*0.01</f>
+        <v>1.2787229158090858</v>
       </c>
       <c r="K28">
-        <f>SUM(K$2:K9)*0.1</f>
-        <v>13.008860510129118</v>
+        <f>SUM(K$2:K9)*0.01</f>
+        <v>1.3008860510129117</v>
       </c>
       <c r="L28">
-        <f>SUM(L$2:L9)*0.1</f>
-        <v>12.991343486777282</v>
+        <f>SUM(L$2:L9)*0.01</f>
+        <v>1.2991343486777283</v>
       </c>
       <c r="M28">
-        <f>SUM(M$2:M9)*0.1</f>
-        <v>13.045517160592306</v>
+        <f>SUM(M$2:M9)*0.01</f>
+        <v>1.3045517160592306</v>
       </c>
       <c r="N28">
-        <f>SUM(N$2:N9)*0.1</f>
-        <v>13.062500572642504</v>
+        <f>SUM(N$2:N9)*0.01</f>
+        <v>1.3062500572642504</v>
       </c>
       <c r="X28">
         <v>6</v>
@@ -9088,56 +10782,56 @@
         <v>6</v>
       </c>
       <c r="B29">
-        <f>SUM(B$2:B10)*0.1</f>
-        <v>1.0297697195950015</v>
+        <f>SUM(B$2:B10)*0.01</f>
+        <v>0.10297697195950015</v>
       </c>
       <c r="C29">
-        <f>SUM(C$2:C10)*0.1</f>
-        <v>3.2814199610079822</v>
+        <f>SUM(C$2:C10)*0.01</f>
+        <v>0.32814199610079819</v>
       </c>
       <c r="D29">
-        <f>SUM(D$2:D10)*0.1</f>
-        <v>5.6286822866026816</v>
+        <f>SUM(D$2:D10)*0.01</f>
+        <v>0.56286822866026809</v>
       </c>
       <c r="E29">
-        <f>SUM(E$2:E10)*0.1</f>
-        <v>8.0111822902046175</v>
+        <f>SUM(E$2:E10)*0.01</f>
+        <v>0.8011182290204617</v>
       </c>
       <c r="F29">
-        <f>SUM(F$2:F10)*0.1</f>
-        <v>10.225898285623735</v>
+        <f>SUM(F$2:F10)*0.01</f>
+        <v>1.0225898285623733</v>
       </c>
       <c r="G29">
-        <f>SUM(G$2:G10)*0.1</f>
-        <v>12.252466761444087</v>
+        <f>SUM(G$2:G10)*0.01</f>
+        <v>1.2252466761444085</v>
       </c>
       <c r="H29">
-        <f>SUM(H$2:H10)*0.1</f>
-        <v>13.593830863283252</v>
+        <f>SUM(H$2:H10)*0.01</f>
+        <v>1.3593830863283249</v>
       </c>
       <c r="I29">
-        <f>SUM(I$2:I10)*0.1</f>
-        <v>14.279630542289713</v>
+        <f>SUM(I$2:I10)*0.01</f>
+        <v>1.4279630542289712</v>
       </c>
       <c r="J29">
-        <f>SUM(J$2:J10)*0.1</f>
-        <v>14.637329643398596</v>
+        <f>SUM(J$2:J10)*0.01</f>
+        <v>1.4637329643398596</v>
       </c>
       <c r="K29">
-        <f>SUM(K$2:K10)*0.1</f>
-        <v>14.960803435789785</v>
+        <f>SUM(K$2:K10)*0.01</f>
+        <v>1.4960803435789785</v>
       </c>
       <c r="L29">
-        <f>SUM(L$2:L10)*0.1</f>
-        <v>14.961902333919875</v>
+        <f>SUM(L$2:L10)*0.01</f>
+        <v>1.4961902333919874</v>
       </c>
       <c r="M29">
-        <f>SUM(M$2:M10)*0.1</f>
-        <v>15.022719856937835</v>
+        <f>SUM(M$2:M10)*0.01</f>
+        <v>1.5022719856937834</v>
       </c>
       <c r="N29">
-        <f>SUM(N$2:N10)*0.1</f>
-        <v>15.051565860653561</v>
+        <f>SUM(N$2:N10)*0.01</f>
+        <v>1.505156586065356</v>
       </c>
       <c r="X29">
         <v>7</v>
@@ -9151,56 +10845,56 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <f>SUM(B$2:B11)*0.1</f>
-        <v>0.42527709268931685</v>
+        <f>SUM(B$2:B11)*0.01</f>
+        <v>4.2527709268931686E-2</v>
       </c>
       <c r="C30">
-        <f>SUM(C$2:C11)*0.1</f>
-        <v>2.347345464881005</v>
+        <f>SUM(C$2:C11)*0.01</f>
+        <v>0.23473454648810049</v>
       </c>
       <c r="D30">
-        <f>SUM(D$2:D11)*0.1</f>
-        <v>4.5350914945709642</v>
+        <f>SUM(D$2:D11)*0.01</f>
+        <v>0.45350914945709642</v>
       </c>
       <c r="E30">
-        <f>SUM(E$2:E11)*0.1</f>
-        <v>6.962049552326774</v>
+        <f>SUM(E$2:E11)*0.01</f>
+        <v>0.69620495523267734</v>
       </c>
       <c r="F30">
-        <f>SUM(F$2:F11)*0.1</f>
-        <v>9.265122910645843</v>
+        <f>SUM(F$2:F11)*0.01</f>
+        <v>0.92651229106458433</v>
       </c>
       <c r="G30">
-        <f>SUM(G$2:G11)*0.1</f>
-        <v>11.529085273434697</v>
+        <f>SUM(G$2:G11)*0.01</f>
+        <v>1.1529085273434698</v>
       </c>
       <c r="H30">
-        <f>SUM(H$2:H11)*0.1</f>
-        <v>13.608372333337918</v>
+        <f>SUM(H$2:H11)*0.01</f>
+        <v>1.3608372333337917</v>
       </c>
       <c r="I30">
-        <f>SUM(I$2:I11)*0.1</f>
-        <v>15.014585683759606</v>
+        <f>SUM(I$2:I11)*0.01</f>
+        <v>1.5014585683759607</v>
       </c>
       <c r="J30">
-        <f>SUM(J$2:J11)*0.1</f>
-        <v>15.639814641537113</v>
+        <f>SUM(J$2:J11)*0.01</f>
+        <v>1.5639814641537111</v>
       </c>
       <c r="K30">
-        <f>SUM(K$2:K11)*0.1</f>
-        <v>16.121992094329773</v>
+        <f>SUM(K$2:K11)*0.01</f>
+        <v>1.6121992094329773</v>
       </c>
       <c r="L30">
-        <f>SUM(L$2:L11)*0.1</f>
-        <v>16.185003851473336</v>
+        <f>SUM(L$2:L11)*0.01</f>
+        <v>1.6185003851473336</v>
       </c>
       <c r="M30">
-        <f>SUM(M$2:M11)*0.1</f>
-        <v>16.300278404113207</v>
+        <f>SUM(M$2:M11)*0.01</f>
+        <v>1.6300278404113206</v>
       </c>
       <c r="N30">
-        <f>SUM(N$2:N11)*0.1</f>
-        <v>16.344885689207601</v>
+        <f>SUM(N$2:N11)*0.01</f>
+        <v>1.6344885689207602</v>
       </c>
       <c r="X30">
         <v>8</v>
@@ -9214,56 +10908,56 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <f>SUM(B$2:B12)*0.1</f>
-        <v>8.8019628227888766E-2</v>
+        <f>SUM(B$2:B12)*0.01</f>
+        <v>8.8019628227888752E-3</v>
       </c>
       <c r="C31">
-        <f>SUM(C$2:C12)*0.1</f>
-        <v>0.98281093114818485</v>
+        <f>SUM(C$2:C12)*0.01</f>
+        <v>9.8281093114818474E-2</v>
       </c>
       <c r="D31">
-        <f>SUM(D$2:D12)*0.1</f>
-        <v>2.89860401427031</v>
+        <f>SUM(D$2:D12)*0.01</f>
+        <v>0.28986040142703101</v>
       </c>
       <c r="E31">
-        <f>SUM(E$2:E12)*0.1</f>
-        <v>5.1943504775430611</v>
+        <f>SUM(E$2:E12)*0.01</f>
+        <v>0.51943504775430605</v>
       </c>
       <c r="F31">
-        <f>SUM(F$2:F12)*0.1</f>
-        <v>7.5080074048604608</v>
+        <f>SUM(F$2:F12)*0.01</f>
+        <v>0.75080074048604606</v>
       </c>
       <c r="G31">
-        <f>SUM(G$2:G12)*0.1</f>
-        <v>9.8316656814658288</v>
+        <f>SUM(G$2:G12)*0.01</f>
+        <v>0.98316656814658276</v>
       </c>
       <c r="H31">
-        <f>SUM(H$2:H12)*0.1</f>
-        <v>12.212100986922223</v>
+        <f>SUM(H$2:H12)*0.01</f>
+        <v>1.2212100986922223</v>
       </c>
       <c r="I31">
-        <f>SUM(I$2:I12)*0.1</f>
-        <v>14.288019553767368</v>
+        <f>SUM(I$2:I12)*0.01</f>
+        <v>1.4288019553767368</v>
       </c>
       <c r="J31">
-        <f>SUM(J$2:J12)*0.1</f>
-        <v>15.648497002103277</v>
+        <f>SUM(J$2:J12)*0.01</f>
+        <v>1.5648497002103277</v>
       </c>
       <c r="K31">
-        <f>SUM(K$2:K12)*0.1</f>
-        <v>16.415294380494778</v>
+        <f>SUM(K$2:K12)*0.01</f>
+        <v>1.6415294380494778</v>
       </c>
       <c r="L31">
-        <f>SUM(L$2:L12)*0.1</f>
-        <v>16.610861420170021</v>
+        <f>SUM(L$2:L12)*0.01</f>
+        <v>1.6610861420170022</v>
       </c>
       <c r="M31">
-        <f>SUM(M$2:M12)*0.1</f>
-        <v>16.814027189017288</v>
+        <f>SUM(M$2:M12)*0.01</f>
+        <v>1.6814027189017287</v>
       </c>
       <c r="N31">
-        <f>SUM(N$2:N12)*0.1</f>
-        <v>16.909162308582093</v>
+        <f>SUM(N$2:N12)*0.01</f>
+        <v>1.6909162308582095</v>
       </c>
       <c r="X31">
         <v>9</v>
@@ -9277,56 +10971,56 @@
         <v>9</v>
       </c>
       <c r="B32">
-        <f>SUM(B$2:B13)*0.1</f>
-        <v>1.6655319261444701E-2</v>
+        <f>SUM(B$2:B13)*0.01</f>
+        <v>1.6655319261444702E-3</v>
       </c>
       <c r="C32">
-        <f>SUM(C$2:C13)*0.1</f>
-        <v>0.27566516141586767</v>
+        <f>SUM(C$2:C13)*0.01</f>
+        <v>2.7566516141586766E-2</v>
       </c>
       <c r="D32">
-        <f>SUM(D$2:D13)*0.1</f>
-        <v>1.245692007471499</v>
+        <f>SUM(D$2:D13)*0.01</f>
+        <v>0.1245692007471499</v>
       </c>
       <c r="E32">
-        <f>SUM(E$2:E13)*0.1</f>
-        <v>3.2423674567912872</v>
+        <f>SUM(E$2:E13)*0.01</f>
+        <v>0.32423674567912869</v>
       </c>
       <c r="F32">
-        <f>SUM(F$2:F13)*0.1</f>
-        <v>5.4441927167988498</v>
+        <f>SUM(F$2:F13)*0.01</f>
+        <v>0.54441927167988502</v>
       </c>
       <c r="G32">
-        <f>SUM(G$2:G13)*0.1</f>
-        <v>7.7428978928552059</v>
+        <f>SUM(G$2:G13)*0.01</f>
+        <v>0.77428978928552061</v>
       </c>
       <c r="H32">
-        <f>SUM(H$2:H13)*0.1</f>
-        <v>10.260283936557308</v>
+        <f>SUM(H$2:H13)*0.01</f>
+        <v>1.0260283936557308</v>
       </c>
       <c r="I32">
-        <f>SUM(I$2:I13)*0.1</f>
-        <v>12.56689862465239</v>
+        <f>SUM(I$2:I13)*0.01</f>
+        <v>1.2566898624652389</v>
       </c>
       <c r="J32">
-        <f>SUM(J$2:J13)*0.1</f>
-        <v>14.658771699955103</v>
+        <f>SUM(J$2:J13)*0.01</f>
+        <v>1.4658771699955102</v>
       </c>
       <c r="K32">
-        <f>SUM(K$2:K13)*0.1</f>
-        <v>16.114103341705075</v>
+        <f>SUM(K$2:K13)*0.01</f>
+        <v>1.6114103341705075</v>
       </c>
       <c r="L32">
-        <f>SUM(L$2:L13)*0.1</f>
-        <v>16.600733578718657</v>
+        <f>SUM(L$2:L13)*0.01</f>
+        <v>1.6600733578718658</v>
       </c>
       <c r="M32">
-        <f>SUM(M$2:M13)*0.1</f>
-        <v>16.955494946599003</v>
+        <f>SUM(M$2:M13)*0.01</f>
+        <v>1.6955494946599003</v>
       </c>
       <c r="N32">
-        <f>SUM(N$2:N13)*0.1</f>
-        <v>17.133831570643689</v>
+        <f>SUM(N$2:N13)*0.01</f>
+        <v>1.7133831570643689</v>
       </c>
       <c r="X32">
         <v>10</v>
@@ -9340,56 +11034,56 @@
         <v>10</v>
       </c>
       <c r="B33">
-        <f>SUM(B$2:B14)*0.1</f>
-        <v>-7.041357135408469E-3</v>
+        <f>SUM(B$2:B14)*0.01</f>
+        <v>-7.041357135408469E-4</v>
       </c>
       <c r="C33">
-        <f>SUM(C$2:C14)*0.1</f>
-        <v>0.12364930191145967</v>
+        <f>SUM(C$2:C14)*0.01</f>
+        <v>1.2364930191145967E-2</v>
       </c>
       <c r="D33">
-        <f>SUM(D$2:D14)*0.1</f>
-        <v>0.34794574680983548</v>
+        <f>SUM(D$2:D14)*0.01</f>
+        <v>3.4794574680983549E-2</v>
       </c>
       <c r="E33">
-        <f>SUM(E$2:E14)*0.1</f>
-        <v>1.4394429148715031</v>
+        <f>SUM(E$2:E14)*0.01</f>
+        <v>0.14394429148715029</v>
       </c>
       <c r="F33">
-        <f>SUM(F$2:F14)*0.1</f>
-        <v>3.3439411653778368</v>
+        <f>SUM(F$2:F14)*0.01</f>
+        <v>0.33439411653778367</v>
       </c>
       <c r="G33">
-        <f>SUM(G$2:G14)*0.1</f>
-        <v>5.4947620987443289</v>
+        <f>SUM(G$2:G14)*0.01</f>
+        <v>0.54947620987443291</v>
       </c>
       <c r="H33">
-        <f>SUM(H$2:H14)*0.1</f>
-        <v>8.055992421726641</v>
+        <f>SUM(H$2:H14)*0.01</f>
+        <v>0.80559924217266399</v>
       </c>
       <c r="I33">
-        <f>SUM(I$2:I14)*0.1</f>
-        <v>10.468617751328743</v>
+        <f>SUM(I$2:I14)*0.01</f>
+        <v>1.0468617751328744</v>
       </c>
       <c r="J33">
-        <f>SUM(J$2:J14)*0.1</f>
-        <v>12.80494451613405</v>
+        <f>SUM(J$2:J14)*0.01</f>
+        <v>1.2804944516134049</v>
       </c>
       <c r="K33">
-        <f>SUM(K$2:K14)*0.1</f>
-        <v>14.961608754159528</v>
+        <f>SUM(K$2:K14)*0.01</f>
+        <v>1.4961608754159528</v>
       </c>
       <c r="L33">
-        <f>SUM(L$2:L14)*0.1</f>
-        <v>16.162513984796735</v>
+        <f>SUM(L$2:L14)*0.01</f>
+        <v>1.6162513984796736</v>
       </c>
       <c r="M33">
-        <f>SUM(M$2:M14)*0.1</f>
-        <v>16.813677068952995</v>
+        <f>SUM(M$2:M14)*0.01</f>
+        <v>1.6813677068952995</v>
       </c>
       <c r="N33">
-        <f>SUM(N$2:N14)*0.1</f>
-        <v>17.141041425140255</v>
+        <f>SUM(N$2:N14)*0.01</f>
+        <v>1.7141041425140253</v>
       </c>
       <c r="X33">
         <v>11</v>
@@ -9403,56 +11097,56 @@
         <v>11</v>
       </c>
       <c r="B34">
-        <f>SUM(B$2:B15)*0.1</f>
-        <v>-1.963069379501833E-2</v>
+        <f>SUM(B$2:B15)*0.01</f>
+        <v>-1.9630693795018327E-3</v>
       </c>
       <c r="C34">
-        <f>SUM(C$2:C15)*0.1</f>
-        <v>9.6907831848515397E-2</v>
+        <f>SUM(C$2:C15)*0.01</f>
+        <v>9.69078318485154E-3</v>
       </c>
       <c r="D34">
-        <f>SUM(D$2:D15)*0.1</f>
-        <v>0.122113606353147</v>
+        <f>SUM(D$2:D15)*0.01</f>
+        <v>1.2211360635314699E-2</v>
       </c>
       <c r="E34">
-        <f>SUM(E$2:E15)*0.1</f>
-        <v>0.44013434123981271</v>
+        <f>SUM(E$2:E15)*0.01</f>
+        <v>4.4013434123981274E-2</v>
       </c>
       <c r="F34">
-        <f>SUM(F$2:F15)*0.1</f>
-        <v>1.4706151883417584</v>
+        <f>SUM(F$2:F15)*0.01</f>
+        <v>0.14706151883417584</v>
       </c>
       <c r="G34">
-        <f>SUM(G$2:G15)*0.1</f>
-        <v>3.3202400426311458</v>
+        <f>SUM(G$2:G15)*0.01</f>
+        <v>0.33202400426311457</v>
       </c>
       <c r="H34">
-        <f>SUM(H$2:H15)*0.1</f>
-        <v>5.7745985155602924</v>
+        <f>SUM(H$2:H15)*0.01</f>
+        <v>0.5774598515560293</v>
       </c>
       <c r="I34">
-        <f>SUM(I$2:I15)*0.1</f>
-        <v>8.195587474480476</v>
+        <f>SUM(I$2:I15)*0.01</f>
+        <v>0.81955874744804758</v>
       </c>
       <c r="J34">
-        <f>SUM(J$2:J15)*0.1</f>
-        <v>10.626746712807796</v>
+        <f>SUM(J$2:J15)*0.01</f>
+        <v>1.0626746712807795</v>
       </c>
       <c r="K34">
-        <f>SUM(K$2:K15)*0.1</f>
-        <v>13.033268133295378</v>
+        <f>SUM(K$2:K15)*0.01</f>
+        <v>1.3033268133295377</v>
       </c>
       <c r="L34">
-        <f>SUM(L$2:L15)*0.1</f>
-        <v>14.909193434690136</v>
+        <f>SUM(L$2:L15)*0.01</f>
+        <v>1.4909193434690136</v>
       </c>
       <c r="M34">
-        <f>SUM(M$2:M15)*0.1</f>
-        <v>16.296047389789106</v>
+        <f>SUM(M$2:M15)*0.01</f>
+        <v>1.6296047389789103</v>
       </c>
       <c r="N34">
-        <f>SUM(N$2:N15)*0.1</f>
-        <v>16.915872949842342</v>
+        <f>SUM(N$2:N15)*0.01</f>
+        <v>1.6915872949842341</v>
       </c>
       <c r="X34">
         <v>12</v>
@@ -9466,56 +11160,56 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <f>SUM(B$2:B16)*0.1</f>
-        <v>-3.2549261339619197E-2</v>
+        <f>SUM(B$2:B16)*0.01</f>
+        <v>-3.2549261339619197E-3</v>
       </c>
       <c r="C35">
-        <f>SUM(C$2:C16)*0.1</f>
-        <v>9.4341416096705183E-2</v>
+        <f>SUM(C$2:C16)*0.01</f>
+        <v>9.4341416096705173E-3</v>
       </c>
       <c r="D35">
-        <f>SUM(D$2:D16)*0.1</f>
-        <v>5.20636642675818E-2</v>
+        <f>SUM(D$2:D16)*0.01</f>
+        <v>5.2063664267581805E-3</v>
       </c>
       <c r="E35">
-        <f>SUM(E$2:E16)*0.1</f>
-        <v>0.14952792680962398</v>
+        <f>SUM(E$2:E16)*0.01</f>
+        <v>1.4952792680962399E-2</v>
       </c>
       <c r="F35">
-        <f>SUM(F$2:F16)*0.1</f>
-        <v>0.42639699638904727</v>
+        <f>SUM(F$2:F16)*0.01</f>
+        <v>4.2639699638904731E-2</v>
       </c>
       <c r="G35">
-        <f>SUM(G$2:G16)*0.1</f>
-        <v>1.4085304867912027</v>
+        <f>SUM(G$2:G16)*0.01</f>
+        <v>0.14085304867912027</v>
       </c>
       <c r="H35">
-        <f>SUM(H$2:H16)*0.1</f>
-        <v>3.5649736609040303</v>
+        <f>SUM(H$2:H16)*0.01</f>
+        <v>0.35649736609040306</v>
       </c>
       <c r="I35">
-        <f>SUM(I$2:I16)*0.1</f>
-        <v>5.8952190069310877</v>
+        <f>SUM(I$2:I16)*0.01</f>
+        <v>0.58952190069310872</v>
       </c>
       <c r="J35">
-        <f>SUM(J$2:J16)*0.1</f>
-        <v>8.2689902990338862</v>
+        <f>SUM(J$2:J16)*0.01</f>
+        <v>0.82689902990338848</v>
       </c>
       <c r="K35">
-        <f>SUM(K$2:K16)*0.1</f>
-        <v>10.813441256531036</v>
+        <f>SUM(K$2:K16)*0.01</f>
+        <v>1.0813441256531036</v>
       </c>
       <c r="L35">
-        <f>SUM(L$2:L16)*0.1</f>
-        <v>12.911198302141424</v>
+        <f>SUM(L$2:L16)*0.01</f>
+        <v>1.2911198302141424</v>
       </c>
       <c r="M35">
-        <f>SUM(M$2:M16)*0.1</f>
-        <v>15.033984569549464</v>
+        <f>SUM(M$2:M16)*0.01</f>
+        <v>1.5033984569549463</v>
       </c>
       <c r="N35">
-        <f>SUM(N$2:N16)*0.1</f>
-        <v>16.361154502875085</v>
+        <f>SUM(N$2:N16)*0.01</f>
+        <v>1.6361154502875084</v>
       </c>
       <c r="X35">
         <v>13</v>
@@ -9529,74 +11223,74 @@
         <v>13</v>
       </c>
       <c r="B36">
-        <f>SUM(B$2:B17)*0.1</f>
-        <v>-9.1288701317797146E-3</v>
+        <f>SUM(B$2:B17)*0.01</f>
+        <v>-9.1288701317797155E-4</v>
       </c>
       <c r="C36">
-        <f>SUM(C$2:C17)*0.1</f>
-        <v>9.5486802093723608E-2</v>
+        <f>SUM(C$2:C17)*0.01</f>
+        <v>9.5486802093723601E-3</v>
       </c>
       <c r="D36">
-        <f>SUM(D$2:D17)*0.1</f>
-        <v>4.2946540988707198E-2</v>
+        <f>SUM(D$2:D17)*0.01</f>
+        <v>4.2946540988707191E-3</v>
       </c>
       <c r="E36">
-        <f>SUM(E$2:E17)*0.1</f>
-        <v>7.3022729293477487E-2</v>
+        <f>SUM(E$2:E17)*0.01</f>
+        <v>7.3022729293477483E-3</v>
       </c>
       <c r="F36">
-        <f>SUM(F$2:F17)*0.1</f>
-        <v>9.5719949753578559E-2</v>
+        <f>SUM(F$2:F17)*0.01</f>
+        <v>9.5719949753578556E-3</v>
       </c>
       <c r="G36">
-        <f>SUM(G$2:G17)*0.1</f>
-        <v>0.31524784942842959</v>
+        <f>SUM(G$2:G17)*0.01</f>
+        <v>3.1524784942842957E-2</v>
       </c>
       <c r="H36">
-        <f>SUM(H$2:H17)*0.1</f>
-        <v>1.6170646178439865</v>
+        <f>SUM(H$2:H17)*0.01</f>
+        <v>0.16170646178439863</v>
       </c>
       <c r="I36">
-        <f>SUM(I$2:I17)*0.1</f>
-        <v>3.6466017835016475</v>
+        <f>SUM(I$2:I17)*0.01</f>
+        <v>0.36466017835016473</v>
       </c>
       <c r="J36">
-        <f>SUM(J$2:J17)*0.1</f>
-        <v>5.918100623966648</v>
+        <f>SUM(J$2:J17)*0.01</f>
+        <v>0.59181006239666478</v>
       </c>
       <c r="K36">
-        <f>SUM(K$2:K17)*0.1</f>
-        <v>8.4795888008119373</v>
+        <f>SUM(K$2:K17)*0.01</f>
+        <v>0.84795888008119369</v>
       </c>
       <c r="L36">
-        <f>SUM(L$2:L17)*0.1</f>
-        <v>10.653101672705956</v>
+        <f>SUM(L$2:L17)*0.01</f>
+        <v>1.0653101672705956</v>
       </c>
       <c r="M36">
-        <f>SUM(M$2:M17)*0.1</f>
-        <v>13.028784637821701</v>
+        <f>SUM(M$2:M17)*0.01</f>
+        <v>1.3028784637821702</v>
       </c>
       <c r="N36">
-        <f>SUM(N$2:N17)*0.1</f>
-        <v>15.054094978942068</v>
+        <f>SUM(N$2:N17)*0.01</f>
+        <v>1.5054094978942067</v>
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -10501,124 +12195,176 @@
       <c r="A55">
         <v>13</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <f t="array" ref="B55">SUM(ABS(B$2:B17))*0.1</f>
         <v>2.7987425000666839</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <f t="array" ref="C55">SUM(ABS(C$2:C17))*0.1</f>
         <v>7.3352052287003318</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <f t="array" ref="D55">SUM(ABS(D$2:D17))*0.1</f>
         <v>11.93360131762355</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <f t="array" ref="E55">SUM(ABS(E$2:E17))*0.1</f>
         <v>16.481995227618761</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <f t="array" ref="F55">SUM(ABS(F$2:F17))*0.1</f>
         <v>20.362052964778542</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <f t="array" ref="G55">SUM(ABS(G$2:G17))*0.1</f>
         <v>24.189685673459746</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="2">
         <f t="array" ref="H55">SUM(ABS(H$2:H17))*0.1</f>
         <v>25.599680048831857</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="2">
         <f t="array" ref="I55">SUM(ABS(I$2:I17))*0.1</f>
         <v>26.382569584017563</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="2">
         <f t="array" ref="J55">SUM(ABS(J$2:J17))*0.1</f>
         <v>25.378893380239901</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="2">
         <f t="array" ref="K55">SUM(ABS(K$2:K17))*0.1</f>
         <v>24.350999960177617</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="2">
         <f t="array" ref="L55">SUM(ABS(L$2:L17))*0.1</f>
         <v>22.568621167634092</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="2">
         <f t="array" ref="M55">SUM(ABS(M$2:M17))*0.1</f>
         <v>20.882205255376306</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="2">
         <f t="array" ref="N55">SUM(ABS(N$2:N17))*0.1</f>
         <v>19.227987871338442</v>
       </c>
     </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="5">
+        <f>0.5 * B81 *POWER(B75,2)</f>
+        <v>0.13713864237596121</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" ref="C56:N56" si="0">0.5 * C81 *POWER(C75,2)</f>
+        <v>0.37142006294000079</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59882739293061293</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="0"/>
+        <v>0.82775089784561173</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="0"/>
+        <v>1.022888645726606</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="0"/>
+        <v>1.2252466761444085</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3608372333337917</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5014585683759605</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5648497002103279</v>
+      </c>
+      <c r="K56" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6415294380494778</v>
+      </c>
+      <c r="L56" s="5">
+        <f t="shared" si="0"/>
+        <v>1.661086142017002</v>
+      </c>
+      <c r="M56" s="5">
+        <f t="shared" si="0"/>
+        <v>1.6955494946599003</v>
+      </c>
+      <c r="N56" s="5">
+        <f t="shared" si="0"/>
+        <v>1.7141041425140253</v>
+      </c>
+    </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="P57" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="P57" s="1"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P58">
-        <v>1.7999999999999999E-2</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
@@ -10626,56 +12372,56 @@
         <v>-2</v>
       </c>
       <c r="B59">
-        <f>SQRT(2*B21/$P$58)</f>
-        <v>0.86752503764304778</v>
+        <f>SQRT(2*B21/B$81)</f>
+        <v>0.72371126883286008</v>
       </c>
       <c r="C59">
-        <f t="shared" ref="C59:N59" si="0">SQRT(2*C21/$P$58)</f>
-        <v>2.2815354828394301</v>
+        <f t="shared" ref="C59:N59" si="1">SQRT(2*C21/C$81)</f>
+        <v>1.3458465537467224</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>2.8141137722720129</v>
+        <f t="shared" si="1"/>
+        <v>1.3553902008588659</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
-        <v>3.0189839270415733</v>
+        <f t="shared" si="1"/>
+        <v>1.2592562713586235</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
-        <v>3.4885659127957629</v>
+        <f t="shared" si="1"/>
+        <v>1.30150322317675</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
-        <v>3.5553751448767104</v>
+        <f t="shared" si="1"/>
+        <v>1.2108577450847688</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
-        <v>3.7916819745612078</v>
+        <f t="shared" si="1"/>
+        <v>1.1955457533923066</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
-        <v>3.8766497756573171</v>
+        <f t="shared" si="1"/>
+        <v>1.1433913213039855</v>
       </c>
       <c r="J59">
-        <f t="shared" si="0"/>
-        <v>4.0204157273732442</v>
+        <f t="shared" si="1"/>
+        <v>1.1179774035486572</v>
       </c>
       <c r="K59">
-        <f t="shared" si="0"/>
-        <v>4.1958928667291557</v>
+        <f t="shared" si="1"/>
+        <v>1.1068982684909161</v>
       </c>
       <c r="L59">
-        <f t="shared" si="0"/>
-        <v>4.2697796952738925</v>
+        <f t="shared" si="1"/>
+        <v>1.0739707225784292</v>
       </c>
       <c r="M59">
-        <f t="shared" si="0"/>
-        <v>4.3062688213576577</v>
+        <f t="shared" si="1"/>
+        <v>1.0370359969525873</v>
       </c>
       <c r="N59">
-        <f t="shared" si="0"/>
-        <v>4.3475962553325234</v>
+        <f t="shared" si="1"/>
+        <v>1.0059139872852776</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
@@ -10683,56 +12429,56 @@
         <v>-1</v>
       </c>
       <c r="B60">
-        <f t="shared" ref="B60:N60" si="1">SQRT(2*B22/$P$58)</f>
-        <v>2.7392418616194281</v>
+        <f t="shared" ref="B60:N74" si="2">SQRT(2*B22/B$81)</f>
+        <v>2.285144655534852</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
-        <v>4.7282537126716866</v>
+        <f t="shared" si="2"/>
+        <v>2.789132149073478</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
-        <v>5.9357713609816036</v>
+        <f t="shared" si="2"/>
+        <v>2.8589058539440959</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
-        <v>6.4163494132359462</v>
+        <f t="shared" si="2"/>
+        <v>2.6763402631836279</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
-        <v>6.9763233035735581</v>
+        <f t="shared" si="2"/>
+        <v>2.6027048054962827</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
-        <v>7.1787141425032726</v>
+        <f t="shared" si="2"/>
+        <v>2.4448620089290403</v>
       </c>
       <c r="H60">
-        <f t="shared" si="1"/>
-        <v>7.5158577115596179</v>
+        <f t="shared" si="2"/>
+        <v>2.3698062839765917</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
-        <v>7.7000027264480853</v>
+        <f t="shared" si="2"/>
+        <v>2.2710631088527875</v>
       </c>
       <c r="J60">
-        <f t="shared" si="1"/>
-        <v>7.8243182681826218</v>
+        <f t="shared" si="2"/>
+        <v>2.1757478865789559</v>
       </c>
       <c r="K60">
-        <f t="shared" si="1"/>
-        <v>7.9422609823475216</v>
+        <f t="shared" si="2"/>
+        <v>2.0952095795802665</v>
       </c>
       <c r="L60">
-        <f t="shared" si="1"/>
-        <v>8.0576736713334896</v>
+        <f t="shared" si="2"/>
+        <v>2.0267335161769053</v>
       </c>
       <c r="M60">
-        <f t="shared" si="1"/>
-        <v>8.0384438008515264</v>
+        <f t="shared" si="2"/>
+        <v>1.9358186696610433</v>
       </c>
       <c r="N60">
-        <f t="shared" si="1"/>
-        <v>8.2032298176516392</v>
+        <f t="shared" si="2"/>
+        <v>1.8980013621021741</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
@@ -10740,56 +12486,56 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:N61" si="2">SQRT(2*B23/$P$58)</f>
-        <v>6.7775021713932055</v>
+        <f t="shared" si="2"/>
+        <v>5.6539632669306723</v>
       </c>
       <c r="C61">
         <f t="shared" si="2"/>
-        <v>10.092413746175986</v>
+        <v>5.9533767330994145</v>
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>11.710993598106977</v>
+        <v>5.6404848025671166</v>
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>12.363833674295829</v>
+        <v>5.1571109580728667</v>
       </c>
       <c r="F61">
         <f t="shared" si="2"/>
-        <v>12.852689918694757</v>
+        <v>4.7950412214705009</v>
       </c>
       <c r="G61">
         <f t="shared" si="2"/>
-        <v>13.086357901895447</v>
+        <v>4.4568342790197599</v>
       </c>
       <c r="H61">
         <f t="shared" si="2"/>
-        <v>13.413864815238128</v>
+        <v>4.2294921420176044</v>
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>13.566354459775956</v>
+        <v>4.0013034059573567</v>
       </c>
       <c r="J61">
         <f t="shared" si="2"/>
-        <v>13.69650873454334</v>
+        <v>3.8086576889228012</v>
       </c>
       <c r="K61">
         <f t="shared" si="2"/>
-        <v>13.842421834019241</v>
+        <v>3.6517025687886306</v>
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
-        <v>13.785801249874268</v>
+        <v>3.4675201032123391</v>
       </c>
       <c r="M61">
         <f t="shared" si="2"/>
-        <v>13.936751653314385</v>
+        <v>3.3562496315589665</v>
       </c>
       <c r="N61">
         <f t="shared" si="2"/>
-        <v>13.988703808097448</v>
+        <v>3.2366006404796219</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
@@ -10797,56 +12543,56 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:N62" si="3">SQRT(2*B24/$P$58)</f>
-        <v>10.649359616478657</v>
+        <f t="shared" si="2"/>
+        <v>8.8839644112615677</v>
       </c>
       <c r="C62">
-        <f t="shared" si="3"/>
-        <v>15.890190850564</v>
+        <f t="shared" si="2"/>
+        <v>9.3734060922840108</v>
       </c>
       <c r="D62">
-        <f t="shared" si="3"/>
-        <v>17.906017372717042</v>
+        <f t="shared" si="2"/>
+        <v>8.6242570298765386</v>
       </c>
       <c r="E62">
-        <f t="shared" si="3"/>
-        <v>18.763744144944855</v>
+        <f t="shared" si="2"/>
+        <v>7.8265943309757411</v>
       </c>
       <c r="F62">
-        <f t="shared" si="3"/>
-        <v>19.321642414507089</v>
+        <f t="shared" si="2"/>
+        <v>7.2084577182021592</v>
       </c>
       <c r="G62">
-        <f t="shared" si="3"/>
-        <v>19.563304385450547</v>
+        <f t="shared" si="2"/>
+        <v>6.6626945594499452</v>
       </c>
       <c r="H62">
-        <f t="shared" si="3"/>
-        <v>19.873649982333244</v>
+        <f t="shared" si="2"/>
+        <v>6.2663108351889685</v>
       </c>
       <c r="I62">
-        <f t="shared" si="3"/>
-        <v>20.039445781949247</v>
+        <f t="shared" si="2"/>
+        <v>5.9104973925423678</v>
       </c>
       <c r="J62">
-        <f t="shared" si="3"/>
-        <v>20.2048571878817</v>
+        <f t="shared" si="2"/>
+        <v>5.6184671709902352</v>
       </c>
       <c r="K62">
-        <f t="shared" si="3"/>
-        <v>20.36744084694589</v>
+        <f t="shared" si="2"/>
+        <v>5.3730363770345564</v>
       </c>
       <c r="L62">
-        <f t="shared" si="3"/>
-        <v>20.299651100793778</v>
+        <f t="shared" si="2"/>
+        <v>5.1059381318761501</v>
       </c>
       <c r="M62">
-        <f t="shared" si="3"/>
-        <v>20.407949768135918</v>
+        <f t="shared" si="2"/>
+        <v>4.9146440715897421</v>
       </c>
       <c r="N62">
-        <f t="shared" si="3"/>
-        <v>20.415887923815387</v>
+        <f t="shared" si="2"/>
+        <v>4.7236739612666145</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
@@ -10854,56 +12600,56 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <f t="shared" ref="B63:N63" si="4">SQRT(2*B25/$P$58)</f>
-        <v>11.748196393190186</v>
+        <f t="shared" si="2"/>
+        <v>9.8006417674271891</v>
       </c>
       <c r="C63">
-        <f t="shared" si="4"/>
-        <v>18.888067916035983</v>
+        <f t="shared" si="2"/>
+        <v>11.141812740994354</v>
       </c>
       <c r="D63">
-        <f t="shared" si="4"/>
-        <v>22.48067105642054</v>
+        <f t="shared" si="2"/>
+        <v>10.827593951186804</v>
       </c>
       <c r="E63">
-        <f t="shared" si="4"/>
-        <v>23.840623101929086</v>
+        <f t="shared" si="2"/>
+        <v>9.9442245734712262</v>
       </c>
       <c r="F63">
-        <f t="shared" si="4"/>
-        <v>24.631324287088155</v>
+        <f t="shared" si="2"/>
+        <v>9.1893771687592061</v>
       </c>
       <c r="G63">
-        <f t="shared" si="4"/>
-        <v>24.95849693704681</v>
+        <f t="shared" si="2"/>
+        <v>8.5001407982069885</v>
       </c>
       <c r="H63">
-        <f t="shared" si="4"/>
-        <v>25.256335335671253</v>
+        <f t="shared" si="2"/>
+        <v>7.9635118819025301</v>
       </c>
       <c r="I63">
-        <f t="shared" si="4"/>
-        <v>25.539317040302858</v>
+        <f t="shared" si="2"/>
+        <v>7.5326467815788023</v>
       </c>
       <c r="J63">
-        <f t="shared" si="4"/>
-        <v>25.689081713954604</v>
+        <f t="shared" si="2"/>
+        <v>7.1434933155234832</v>
       </c>
       <c r="K63">
-        <f t="shared" si="4"/>
-        <v>25.870287316123257</v>
+        <f t="shared" si="2"/>
+        <v>6.8247157744763687</v>
       </c>
       <c r="L63">
-        <f t="shared" si="4"/>
-        <v>25.787749751917389</v>
+        <f t="shared" si="2"/>
+        <v>6.4863506342946957</v>
       </c>
       <c r="M63">
-        <f t="shared" si="4"/>
-        <v>25.879626317504648</v>
+        <f t="shared" si="2"/>
+        <v>6.2323336494521202</v>
       </c>
       <c r="N63">
-        <f t="shared" si="4"/>
-        <v>25.898011642728338</v>
+        <f t="shared" si="2"/>
+        <v>5.9920863448036288</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
@@ -10911,633 +12657,1053 @@
         <v>3</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64:N64" si="5">SQRT(2*B26/$P$58)</f>
-        <v>12.326007056014848</v>
+        <f t="shared" si="2"/>
+        <v>10.282665997038015</v>
       </c>
       <c r="C64">
-        <f t="shared" si="5"/>
-        <v>20.007850790452174</v>
+        <f t="shared" si="2"/>
+        <v>11.802357332044087</v>
       </c>
       <c r="D64">
-        <f t="shared" si="5"/>
-        <v>24.9596469470345</v>
+        <f t="shared" si="2"/>
+        <v>12.021568289896933</v>
       </c>
       <c r="E64">
-        <f t="shared" si="5"/>
-        <v>27.703852176924318</v>
+        <f t="shared" si="2"/>
+        <v>11.555626143651144</v>
       </c>
       <c r="F64">
-        <f t="shared" si="5"/>
-        <v>28.88599077909624</v>
+        <f t="shared" si="2"/>
+        <v>10.776694791906211</v>
       </c>
       <c r="G64">
-        <f t="shared" si="5"/>
-        <v>29.451242670283378</v>
+        <f t="shared" si="2"/>
+        <v>10.030239802140564</v>
       </c>
       <c r="H64">
-        <f t="shared" si="5"/>
-        <v>29.837175266262225</v>
+        <f t="shared" si="2"/>
+        <v>9.4078850552675579</v>
       </c>
       <c r="I64">
-        <f t="shared" si="5"/>
-        <v>30.156558150238212</v>
+        <f t="shared" si="2"/>
+        <v>8.8944704486581738</v>
       </c>
       <c r="J64">
-        <f t="shared" si="5"/>
-        <v>30.304626019898947</v>
+        <f t="shared" si="2"/>
+        <v>8.4269611429898728</v>
       </c>
       <c r="K64">
-        <f t="shared" si="5"/>
-        <v>30.547957212470983</v>
+        <f t="shared" si="2"/>
+        <v>8.0587093184715908</v>
       </c>
       <c r="L64">
-        <f t="shared" si="5"/>
-        <v>30.47729402668373</v>
+        <f t="shared" si="2"/>
+        <v>7.6659040569007937</v>
       </c>
       <c r="M64">
-        <f t="shared" si="5"/>
-        <v>30.549127230785061</v>
+        <f t="shared" si="2"/>
+        <v>7.3568432274092324</v>
       </c>
       <c r="N64">
-        <f t="shared" si="5"/>
-        <v>30.533434405035432</v>
+        <f t="shared" si="2"/>
+        <v>7.0645954555256942</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>4</v>
       </c>
       <c r="B65">
-        <f t="shared" ref="B65:N65" si="6">SQRT(2*B27/$P$58)</f>
-        <v>12.344078309319963</v>
+        <f t="shared" si="2"/>
+        <v>10.297741492374007</v>
       </c>
       <c r="C65">
-        <f t="shared" si="6"/>
-        <v>20.314747323612551</v>
+        <f t="shared" si="2"/>
+        <v>11.983391396435088</v>
       </c>
       <c r="D65">
-        <f t="shared" si="6"/>
-        <v>25.779919113189159</v>
+        <f t="shared" si="2"/>
+        <v>12.416644305301128</v>
       </c>
       <c r="E65">
-        <f t="shared" si="6"/>
-        <v>29.793411227417515</v>
+        <f t="shared" si="2"/>
+        <v>12.427207577105886</v>
       </c>
       <c r="F65">
-        <f t="shared" si="6"/>
-        <v>32.116145962151606</v>
+        <f t="shared" si="2"/>
+        <v>11.981790950957562</v>
       </c>
       <c r="G65">
-        <f t="shared" si="6"/>
-        <v>33.108839111835188</v>
+        <f t="shared" si="2"/>
+        <v>11.275911158658156</v>
       </c>
       <c r="H65">
-        <f t="shared" si="6"/>
-        <v>33.671291642491674</v>
+        <f t="shared" si="2"/>
+        <v>10.616810693642989</v>
       </c>
       <c r="I65">
-        <f t="shared" si="6"/>
-        <v>34.084273173027547</v>
+        <f t="shared" si="2"/>
+        <v>10.052923115136444</v>
       </c>
       <c r="J65">
-        <f t="shared" si="6"/>
-        <v>34.311625333620803</v>
+        <f t="shared" si="2"/>
+        <v>9.5412077763107668</v>
       </c>
       <c r="K65">
-        <f t="shared" si="6"/>
-        <v>34.589881331363046</v>
+        <f t="shared" si="2"/>
+        <v>9.124989833889261</v>
       </c>
       <c r="L65">
-        <f t="shared" si="6"/>
-        <v>34.524946746571764</v>
+        <f t="shared" si="2"/>
+        <v>8.684003543658001</v>
       </c>
       <c r="M65">
-        <f t="shared" si="6"/>
-        <v>34.617519157921322</v>
+        <f t="shared" si="2"/>
+        <v>8.336593691947451</v>
       </c>
       <c r="N65">
-        <f t="shared" si="6"/>
-        <v>34.593911929219878</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>8.0040780791995942</v>
+      </c>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>5</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:N66" si="7">SQRT(2*B28/$P$58)</f>
-        <v>11.872291798221749</v>
+        <f t="shared" si="2"/>
+        <v>9.9041652844840815</v>
       </c>
       <c r="C66">
-        <f t="shared" si="7"/>
-        <v>20.088970679744921</v>
+        <f t="shared" si="2"/>
+        <v>11.850208844442697</v>
       </c>
       <c r="D66">
-        <f t="shared" si="7"/>
-        <v>25.794646148433657</v>
+        <f t="shared" si="2"/>
+        <v>12.423737436877676</v>
       </c>
       <c r="E66">
-        <f t="shared" si="7"/>
-        <v>30.326938846979882</v>
+        <f t="shared" si="2"/>
+        <v>12.649748676069379</v>
       </c>
       <c r="F66">
-        <f t="shared" si="7"/>
-        <v>33.712652516469667</v>
+        <f t="shared" si="2"/>
+        <v>12.577410606199381</v>
       </c>
       <c r="G66">
-        <f t="shared" si="7"/>
-        <v>35.819998036924197</v>
+        <f t="shared" si="2"/>
+        <v>12.199253323360599</v>
       </c>
       <c r="H66">
-        <f t="shared" si="7"/>
-        <v>36.7747330779031</v>
+        <f t="shared" si="2"/>
+        <v>11.595349045197965</v>
       </c>
       <c r="I66">
-        <f t="shared" si="7"/>
-        <v>37.367561398816058</v>
+        <f t="shared" si="2"/>
+        <v>11.021306508002931</v>
       </c>
       <c r="J66">
-        <f t="shared" si="7"/>
-        <v>37.693543741440301</v>
+        <f t="shared" si="2"/>
+        <v>10.481634990055083</v>
       </c>
       <c r="K66">
-        <f t="shared" si="7"/>
-        <v>38.018797266219536</v>
+        <f t="shared" si="2"/>
+        <v>10.029555615630075</v>
       </c>
       <c r="L66">
-        <f t="shared" si="7"/>
-        <v>37.993191622209373</v>
+        <f t="shared" si="2"/>
+        <v>9.5563655203872298</v>
       </c>
       <c r="M66">
-        <f t="shared" si="7"/>
-        <v>38.072324682536511</v>
+        <f t="shared" si="2"/>
+        <v>9.168580230671493</v>
       </c>
       <c r="N66">
-        <f t="shared" si="7"/>
-        <v>38.097099003937736</v>
+        <f t="shared" si="2"/>
+        <v>8.814619047490627</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:N67" si="8">SQRT(2*B29/$P$58)</f>
-        <v>10.696675078395995</v>
+        <f t="shared" si="2"/>
+        <v>8.9234361630771026</v>
       </c>
       <c r="C67">
-        <f t="shared" si="8"/>
-        <v>19.094559903013629</v>
+        <f t="shared" si="2"/>
+        <v>11.263619537838167</v>
       </c>
       <c r="D67">
-        <f t="shared" si="8"/>
-        <v>25.008181520371558</v>
+        <f t="shared" si="2"/>
+        <v>12.044944489449378</v>
       </c>
       <c r="E67">
-        <f t="shared" si="8"/>
-        <v>29.835069391209583</v>
+        <f t="shared" si="2"/>
+        <v>12.444583722615826</v>
       </c>
       <c r="F67">
-        <f t="shared" si="8"/>
-        <v>33.707727906592275</v>
+        <f t="shared" si="2"/>
+        <v>12.575573348200379</v>
       </c>
       <c r="G67">
-        <f t="shared" si="8"/>
-        <v>36.896953745749933</v>
+        <f t="shared" si="2"/>
+        <v>12.566033229279672</v>
       </c>
       <c r="H67">
-        <f t="shared" si="8"/>
-        <v>38.864194980417608</v>
+        <f t="shared" si="2"/>
+        <v>12.25417204807265</v>
       </c>
       <c r="I67">
-        <f t="shared" si="8"/>
-        <v>39.832469366208869</v>
+        <f t="shared" si="2"/>
+        <v>11.748314244277514</v>
       </c>
       <c r="J67">
-        <f t="shared" si="8"/>
-        <v>40.328277428841687</v>
+        <f t="shared" si="2"/>
+        <v>11.214288756885233</v>
       </c>
       <c r="K67">
-        <f t="shared" si="8"/>
-        <v>40.771454387420761</v>
+        <f t="shared" si="2"/>
+        <v>10.755720820029586</v>
       </c>
       <c r="L67">
-        <f t="shared" si="8"/>
-        <v>40.772951728538906</v>
+        <f t="shared" si="2"/>
+        <v>10.255554046037361</v>
       </c>
       <c r="M67">
-        <f t="shared" si="8"/>
-        <v>40.855735156955809</v>
+        <f t="shared" si="2"/>
+        <v>9.838881360492195</v>
       </c>
       <c r="N67">
-        <f t="shared" si="8"/>
-        <v>40.894941089813109</v>
+        <f t="shared" si="2"/>
+        <v>9.4619626192276485</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>7</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:N68" si="9">SQRT(2*B30/$P$58)</f>
-        <v>6.8740825059649229</v>
+        <f t="shared" si="2"/>
+        <v>5.734533018170473</v>
       </c>
       <c r="C68">
-        <f t="shared" si="9"/>
-        <v>16.149803799568467</v>
+        <f t="shared" si="2"/>
+        <v>9.5265482175560905</v>
       </c>
       <c r="D68">
-        <f t="shared" si="9"/>
-        <v>22.447695983158926</v>
+        <f t="shared" si="2"/>
+        <v>10.811711831703303</v>
       </c>
       <c r="E68">
-        <f t="shared" si="9"/>
-        <v>27.812965706117023</v>
+        <f t="shared" si="2"/>
+        <v>11.601138772815959</v>
       </c>
       <c r="F68">
-        <f t="shared" si="9"/>
-        <v>32.085169489701492</v>
+        <f t="shared" si="2"/>
+        <v>11.970234345824034</v>
       </c>
       <c r="G68">
-        <f t="shared" si="9"/>
-        <v>35.7911926991275</v>
+        <f t="shared" si="2"/>
+        <v>12.189443060041079</v>
       </c>
       <c r="H68">
-        <f t="shared" si="9"/>
-        <v>38.884976152376382</v>
+        <f t="shared" si="2"/>
+        <v>12.260724507390842</v>
       </c>
       <c r="I68">
-        <f t="shared" si="9"/>
-        <v>40.844672825174051</v>
+        <f t="shared" si="2"/>
+        <v>12.046856727439648</v>
       </c>
       <c r="J68">
-        <f t="shared" si="9"/>
-        <v>41.686414842164261</v>
+        <f t="shared" si="2"/>
+        <v>11.591952919491792</v>
       </c>
       <c r="K68">
-        <f t="shared" si="9"/>
-        <v>42.324135607541123</v>
+        <f t="shared" si="2"/>
+        <v>11.165326167129248</v>
       </c>
       <c r="L68">
-        <f t="shared" si="9"/>
-        <v>42.406765513002938</v>
+        <f t="shared" si="2"/>
+        <v>10.666504562430895</v>
       </c>
       <c r="M68">
-        <f t="shared" si="9"/>
-        <v>42.557514552678796</v>
+        <f t="shared" si="2"/>
+        <v>10.248704008693837</v>
       </c>
       <c r="N68">
-        <f t="shared" si="9"/>
-        <v>42.615706141186443</v>
+        <f t="shared" si="2"/>
+        <v>9.8601002411112422</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>8</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69:N69" si="10">SQRT(2*B31/$P$58)</f>
-        <v>3.1272925497924944</v>
+        <f t="shared" si="2"/>
+        <v>2.6088663277902033</v>
       </c>
       <c r="C69">
-        <f t="shared" si="10"/>
-        <v>10.449938496087933</v>
+        <f t="shared" si="2"/>
+        <v>6.1642756895992354</v>
       </c>
       <c r="D69">
-        <f t="shared" si="10"/>
-        <v>17.946228369679829</v>
+        <f t="shared" si="2"/>
+        <v>8.6436242607920555</v>
       </c>
       <c r="E69">
-        <f t="shared" si="10"/>
-        <v>24.023947491208435</v>
+        <f t="shared" si="2"/>
+        <v>10.020691488324672</v>
       </c>
       <c r="F69">
-        <f t="shared" si="10"/>
-        <v>28.882919606308771</v>
+        <f t="shared" si="2"/>
+        <v>10.7755490084004</v>
       </c>
       <c r="G69">
-        <f t="shared" si="10"/>
-        <v>33.051585407369608</v>
+        <f t="shared" si="2"/>
+        <v>11.256412206040782</v>
       </c>
       <c r="H69">
-        <f t="shared" si="10"/>
-        <v>36.836125063014229</v>
+        <f t="shared" si="2"/>
+        <v>11.614706398368503</v>
       </c>
       <c r="I69">
-        <f t="shared" si="10"/>
-        <v>39.844168057525991</v>
+        <f t="shared" si="2"/>
+        <v>11.751764693220981</v>
       </c>
       <c r="J69">
-        <f t="shared" si="10"/>
-        <v>41.697984233324597</v>
+        <f t="shared" si="2"/>
+        <v>11.595170078802459</v>
       </c>
       <c r="K69">
-        <f t="shared" si="10"/>
-        <v>42.707395118793578</v>
+        <f t="shared" si="2"/>
+        <v>11.266432011072951</v>
       </c>
       <c r="L69">
-        <f t="shared" si="10"/>
-        <v>42.961043619863105</v>
+        <f t="shared" si="2"/>
+        <v>10.805921230600664</v>
       </c>
       <c r="M69">
-        <f t="shared" si="10"/>
-        <v>43.222971244746041</v>
+        <f t="shared" si="2"/>
+        <v>10.408959341724614</v>
       </c>
       <c r="N69">
-        <f t="shared" si="10"/>
-        <v>43.345078291135628</v>
+        <f t="shared" si="2"/>
+        <v>10.028856860742222</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70:N70" si="11">SQRT(2*B32/$P$58)</f>
-        <v>1.3603643001230998</v>
+        <f t="shared" si="2"/>
+        <v>1.134850212959619</v>
       </c>
       <c r="C70">
-        <f t="shared" si="11"/>
-        <v>5.5343890701269691</v>
+        <f t="shared" si="2"/>
+        <v>3.2646603627895954</v>
       </c>
       <c r="D70">
-        <f t="shared" si="11"/>
-        <v>11.764787420620435</v>
+        <f t="shared" si="2"/>
+        <v>5.6663940677218845</v>
       </c>
       <c r="E70">
-        <f t="shared" si="11"/>
-        <v>18.980596691215677</v>
+        <f t="shared" si="2"/>
+        <v>7.9170462629670499</v>
       </c>
       <c r="F70">
-        <f t="shared" si="11"/>
-        <v>24.594924311055298</v>
+        <f t="shared" si="2"/>
+        <v>9.1757971799286793</v>
       </c>
       <c r="G70">
-        <f t="shared" si="11"/>
-        <v>29.331245934924464</v>
+        <f t="shared" si="2"/>
+        <v>9.9893723913966941</v>
       </c>
       <c r="H70">
-        <f t="shared" si="11"/>
-        <v>33.764353222094563</v>
+        <f t="shared" si="2"/>
+        <v>10.646153707388514</v>
       </c>
       <c r="I70">
-        <f t="shared" si="11"/>
-        <v>37.367393130988162</v>
+        <f t="shared" si="2"/>
+        <v>11.021256878558642</v>
       </c>
       <c r="J70">
-        <f t="shared" si="11"/>
-        <v>40.357804835076486</v>
+        <f t="shared" si="2"/>
+        <v>11.222499592578453</v>
       </c>
       <c r="K70">
-        <f t="shared" si="11"/>
-        <v>42.313779396977992</v>
+        <f t="shared" si="2"/>
+        <v>11.162594145148574</v>
       </c>
       <c r="L70">
-        <f t="shared" si="11"/>
-        <v>42.947944691113705</v>
+        <f t="shared" si="2"/>
+        <v>10.802626478417181</v>
       </c>
       <c r="M70">
-        <f t="shared" si="11"/>
-        <v>43.404422389376926</v>
+        <f t="shared" si="2"/>
+        <v>10.452656420675471</v>
       </c>
       <c r="N70">
-        <f t="shared" si="11"/>
-        <v>43.632087543513826</v>
+        <f t="shared" si="2"/>
+        <v>10.095262893982637</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q70">
+        <v>10.297741492374007</v>
+      </c>
+      <c r="R70" s="5">
+        <v>0.13713864237596121</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>10</v>
       </c>
       <c r="B71" t="e">
-        <f t="shared" ref="B71:N71" si="12">SQRT(2*B33/$P$58)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="C71">
-        <f t="shared" si="12"/>
-        <v>3.7065902556791355</v>
+        <f t="shared" si="2"/>
+        <v>2.1864668593927048</v>
       </c>
       <c r="D71">
-        <f t="shared" si="12"/>
-        <v>6.2177679704558102</v>
+        <f t="shared" si="2"/>
+        <v>2.9947267453816786</v>
       </c>
       <c r="E71">
-        <f t="shared" si="12"/>
-        <v>12.6466636569646</v>
+        <f t="shared" si="2"/>
+        <v>5.275082910892408</v>
       </c>
       <c r="F71">
-        <f t="shared" si="12"/>
-        <v>19.275606822492392</v>
+        <f t="shared" si="2"/>
+        <v>7.1912829039989328</v>
       </c>
       <c r="G71">
-        <f t="shared" si="12"/>
-        <v>24.708887512041152</v>
+        <f t="shared" si="2"/>
+        <v>8.41513106134426</v>
       </c>
       <c r="H71">
-        <f t="shared" si="12"/>
-        <v>29.918393490973706</v>
+        <f t="shared" si="2"/>
+        <v>9.4334937704244002</v>
       </c>
       <c r="I71">
-        <f t="shared" si="12"/>
-        <v>34.10542112549907</v>
+        <f t="shared" si="2"/>
+        <v>10.059160558990961</v>
       </c>
       <c r="J71">
-        <f t="shared" si="12"/>
-        <v>37.719644920171021</v>
+        <f t="shared" si="2"/>
+        <v>10.488893077279311</v>
       </c>
       <c r="K71">
-        <f t="shared" si="12"/>
-        <v>40.772551706808741</v>
+        <f t="shared" si="2"/>
+        <v>10.756010298567077</v>
       </c>
       <c r="L71">
-        <f t="shared" si="12"/>
-        <v>42.37729211735499</v>
+        <f t="shared" si="2"/>
+        <v>10.6590911672958</v>
       </c>
       <c r="M71">
-        <f t="shared" si="12"/>
-        <v>43.222521224412361</v>
+        <f t="shared" si="2"/>
+        <v>10.408850967792389</v>
       </c>
       <c r="N71">
-        <f t="shared" si="12"/>
-        <v>43.641266690472186</v>
+        <f t="shared" si="2"/>
+        <v>10.097386695682355</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q71">
+        <v>11.983391396435088</v>
+      </c>
+      <c r="R71" s="5">
+        <v>0.37142006294000079</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>11</v>
       </c>
       <c r="B72" t="e">
-        <f t="shared" ref="B72:N72" si="13">SQRT(2*B34/$P$58)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="C72">
-        <f t="shared" si="13"/>
-        <v>3.2813925202659413</v>
+        <f t="shared" si="2"/>
+        <v>1.9356485349919044</v>
       </c>
       <c r="D72">
-        <f t="shared" si="13"/>
-        <v>3.6835008461629273</v>
+        <f t="shared" si="2"/>
+        <v>1.7741219281670138</v>
       </c>
       <c r="E72">
-        <f t="shared" si="13"/>
-        <v>6.9931263175572997</v>
+        <f t="shared" si="2"/>
+        <v>2.9169211842795613</v>
       </c>
       <c r="F72">
-        <f t="shared" si="13"/>
-        <v>12.782866955168107</v>
+        <f t="shared" si="2"/>
+        <v>4.7689918893514296</v>
       </c>
       <c r="G72">
-        <f t="shared" si="13"/>
-        <v>19.207174708747498</v>
+        <f t="shared" si="2"/>
+        <v>6.5414071116508534</v>
       </c>
       <c r="H72">
-        <f t="shared" si="13"/>
-        <v>25.330259716088129</v>
+        <f t="shared" si="2"/>
+        <v>7.9868207932702306</v>
       </c>
       <c r="I72">
-        <f t="shared" si="13"/>
-        <v>30.176494668828433</v>
+        <f t="shared" si="2"/>
+        <v>8.9003505883799008</v>
       </c>
       <c r="J72">
-        <f t="shared" si="13"/>
-        <v>34.362037697965782</v>
+        <f t="shared" si="2"/>
+        <v>9.5552261982897235</v>
       </c>
       <c r="K72">
-        <f t="shared" si="13"/>
-        <v>38.054446569349636</v>
+        <f t="shared" si="2"/>
+        <v>10.038960086421147</v>
       </c>
       <c r="L72">
-        <f t="shared" si="13"/>
-        <v>40.701069375372732</v>
+        <f t="shared" si="2"/>
+        <v>10.237473594988337</v>
       </c>
       <c r="M72">
-        <f t="shared" si="13"/>
-        <v>42.55199093108088</v>
+        <f t="shared" si="2"/>
+        <v>10.247373809705287</v>
       </c>
       <c r="N72">
-        <f t="shared" si="13"/>
-        <v>43.353678492964946</v>
+        <f t="shared" si="2"/>
+        <v>10.030846710490337</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q72">
+        <v>12.423737436877676</v>
+      </c>
+      <c r="R72" s="5">
+        <v>0.59882739293061293</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12</v>
       </c>
       <c r="B73" t="e">
-        <f t="shared" ref="B73:N73" si="14">SQRT(2*B35/$P$58)</f>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="C73">
-        <f t="shared" si="14"/>
-        <v>3.2376503156302374</v>
+        <f t="shared" si="2"/>
+        <v>1.9098456071807703</v>
       </c>
       <c r="D73">
-        <f t="shared" si="14"/>
-        <v>2.405171841113825</v>
+        <f t="shared" si="2"/>
+        <v>1.1584273446753341</v>
       </c>
       <c r="E73">
-        <f t="shared" si="14"/>
-        <v>4.0760537398270671</v>
+        <f t="shared" si="2"/>
+        <v>1.7001734220234301</v>
       </c>
       <c r="F73">
-        <f t="shared" si="14"/>
-        <v>6.883127489973397</v>
+        <f t="shared" si="2"/>
+        <v>2.5679356038188001</v>
       </c>
       <c r="G73">
-        <f t="shared" si="14"/>
-        <v>12.510131391046409</v>
+        <f t="shared" si="2"/>
+        <v>4.2605882275756084</v>
       </c>
       <c r="H73">
-        <f t="shared" si="14"/>
-        <v>19.902466795472673</v>
+        <f t="shared" si="2"/>
+        <v>6.2753969924158373</v>
       </c>
       <c r="I73">
-        <f t="shared" si="14"/>
-        <v>25.593443185774248</v>
+        <f t="shared" si="2"/>
+        <v>7.5486109177708913</v>
       </c>
       <c r="J73">
-        <f t="shared" si="14"/>
-        <v>30.311329563261555</v>
+        <f t="shared" si="2"/>
+        <v>8.428825231310908</v>
       </c>
       <c r="K73">
-        <f t="shared" si="14"/>
-        <v>34.662565873689921</v>
+        <f t="shared" si="2"/>
+        <v>9.1441643925834608</v>
       </c>
       <c r="L73">
-        <f t="shared" si="14"/>
-        <v>37.875817999441608</v>
+        <f t="shared" si="2"/>
+        <v>9.5268427244933171</v>
       </c>
       <c r="M73">
-        <f t="shared" si="14"/>
-        <v>40.871050022600848</v>
+        <f t="shared" si="2"/>
+        <v>9.8425694876438534</v>
       </c>
       <c r="N73">
-        <f t="shared" si="14"/>
-        <v>42.636909548828811</v>
+        <f t="shared" si="2"/>
+        <v>9.8650061254374162</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q73">
+        <v>12.649748676069379</v>
+      </c>
+      <c r="R73" s="5">
+        <v>0.82775089784561173</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>13</v>
       </c>
-      <c r="B74" t="e">
-        <f t="shared" ref="B74:N74" si="15">SQRT(2*B36/$P$58)</f>
+      <c r="B74" s="2" t="e">
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="C74">
-        <f t="shared" si="15"/>
-        <v>3.257244951961765</v>
-      </c>
-      <c r="D74">
-        <f t="shared" si="15"/>
-        <v>2.1844536817323763</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="15"/>
-        <v>2.8484445910293159</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="15"/>
-        <v>3.2612190930110536</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="15"/>
-        <v>5.9184067809995176</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="15"/>
-        <v>13.404247327884905</v>
-      </c>
-      <c r="I74">
-        <f t="shared" si="15"/>
-        <v>20.129033159708083</v>
-      </c>
-      <c r="J74">
-        <f t="shared" si="15"/>
-        <v>25.643064091412597</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="15"/>
-        <v>30.694894256594999</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="15"/>
-        <v>34.404621254040791</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="15"/>
-        <v>38.047900566729624</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="15"/>
-        <v>40.898376738966697</v>
-      </c>
+      <c r="C74" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9214042149591981</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" si="2"/>
+        <v>1.052120615599597</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1881221634678218</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2166853850950692</v>
+      </c>
+      <c r="G74" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0156378433544986</v>
+      </c>
+      <c r="H74" s="2">
+        <f t="shared" si="2"/>
+        <v>4.226459676151376</v>
+      </c>
+      <c r="I74" s="2">
+        <f t="shared" si="2"/>
+        <v>5.9369205765171094</v>
+      </c>
+      <c r="J74" s="2">
+        <f t="shared" si="2"/>
+        <v>7.1306969616994946</v>
+      </c>
+      <c r="K74" s="2">
+        <f t="shared" si="2"/>
+        <v>8.0974720716886033</v>
+      </c>
+      <c r="L74" s="2">
+        <f t="shared" si="2"/>
+        <v>8.6537382687771593</v>
+      </c>
+      <c r="M74" s="2">
+        <f t="shared" si="2"/>
+        <v>9.1626984131779246</v>
+      </c>
+      <c r="N74" s="2">
+        <f t="shared" si="2"/>
+        <v>9.4627575337818133</v>
+      </c>
+      <c r="P74" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q74">
+        <v>12.577410606199381</v>
+      </c>
+      <c r="R74" s="5">
+        <v>1.022888645726606</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75">
+        <f>MAX(B59:B70)</f>
+        <v>10.297741492374007</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:N75" si="3">MAX(C59:C74)</f>
+        <v>11.983391396435088</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>12.423737436877676</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>12.649748676069379</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>12.577410606199381</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="3"/>
+        <v>12.566033229279672</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="3"/>
+        <v>12.260724507390842</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>12.046856727439648</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="3"/>
+        <v>11.595170078802459</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="3"/>
+        <v>11.266432011072951</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="3"/>
+        <v>10.805921230600664</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="3"/>
+        <v>10.452656420675471</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="3"/>
+        <v>10.097386695682355</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q75">
+        <v>12.566033229279672</v>
+      </c>
+      <c r="R75" s="5">
+        <v>1.2252466761444085</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B76" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="P76" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q76">
+        <v>12.260724507390842</v>
+      </c>
+      <c r="R76" s="5">
+        <v>1.3608372333337917</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C77" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P77" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q77">
+        <v>12.046856727439648</v>
+      </c>
+      <c r="R77" s="5">
+        <v>1.5014585683759605</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="C78">
+        <v>8040</v>
+      </c>
+      <c r="E78">
+        <v>3.2</v>
+      </c>
+      <c r="P78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q78">
+        <v>11.595170078802459</v>
+      </c>
+      <c r="R78" s="5">
+        <v>1.5648497002103279</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q79">
+        <v>11.266432011072951</v>
+      </c>
+      <c r="R79" s="5">
+        <v>1.6415294380494778</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>30</v>
+      </c>
+      <c r="E80">
+        <v>40</v>
+      </c>
+      <c r="F80">
+        <v>50</v>
+      </c>
+      <c r="G80">
+        <v>60</v>
+      </c>
+      <c r="H80">
+        <v>70</v>
+      </c>
+      <c r="I80">
+        <v>80</v>
+      </c>
+      <c r="J80">
+        <v>90</v>
+      </c>
+      <c r="K80">
+        <v>100</v>
+      </c>
+      <c r="L80">
+        <v>110</v>
+      </c>
+      <c r="M80">
+        <v>120</v>
+      </c>
+      <c r="N80">
+        <v>130</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q80">
+        <v>10.805921230600664</v>
+      </c>
+      <c r="R80" s="5">
+        <v>1.661086142017002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81:N81" si="4">3.1415926* POWER(($E$78/1000),2) *(B80/1000)*$C$78</f>
+        <v>2.5864606212096003E-3</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="4"/>
+        <v>5.1729212424192006E-3</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="4"/>
+        <v>7.7593818636288005E-3</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>1.0345842484838401E-2</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="4"/>
+        <v>1.2932303106048003E-2</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="4"/>
+        <v>1.5518763727257601E-2</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="4"/>
+        <v>1.8105224348467206E-2</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="4"/>
+        <v>2.0691684969676803E-2</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="4"/>
+        <v>2.3278145590886402E-2</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>2.5864606212096006E-2</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="4"/>
+        <v>2.8451066833305606E-2</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="4"/>
+        <v>3.1037527454515202E-2</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="4"/>
+        <v>3.3623988075724809E-2</v>
+      </c>
+      <c r="P81" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q81">
+        <v>10.452656420675471</v>
+      </c>
+      <c r="R81" s="5">
+        <v>1.6955494946599003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P82" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q82">
+        <v>10.097386695682355</v>
+      </c>
+      <c r="R82" s="5">
+        <v>1.7141041425140253</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P96" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="B84:N84"/>
     <mergeCell ref="B19:N19"/>
     <mergeCell ref="B38:N38"/>
     <mergeCell ref="B57:N57"/>
+    <mergeCell ref="B76:N76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
